--- a/familytree/gregory-jonason-family-tree.xlsx
+++ b/familytree/gregory-jonason-family-tree.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26408"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregjonason/Dropbox/gmail2uth/github/gregjonason.github.io/familytree/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="George Washington to Royalty" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="569">
   <si>
     <t>William Ball</t>
   </si>
@@ -336,15 +341,9 @@
     <t>Catherine DeNeville</t>
   </si>
   <si>
-    <t>“Lady and Duchess Norfolk”</t>
-  </si>
-  <si>
     <t>John Mowbray</t>
   </si>
   <si>
-    <t>“4th Duke of Norfolk"</t>
-  </si>
-  <si>
     <t>b: 1366 d: 1399</t>
   </si>
   <si>
@@ -363,15 +362,9 @@
     <t>Richard Fitz Alan</t>
   </si>
   <si>
-    <t>“11th Earl Arundel”</t>
-  </si>
-  <si>
     <t>b: 1350 d: 1385</t>
   </si>
   <si>
-    <t>“Countess of Arundel”</t>
-  </si>
-  <si>
     <t>Elizabeth Bohun</t>
   </si>
   <si>
@@ -381,9 +374,6 @@
     <t>Richard Fitzalan</t>
   </si>
   <si>
-    <t>“Earl of Arundel”</t>
-  </si>
-  <si>
     <t>Eleanor Platagenet</t>
   </si>
   <si>
@@ -414,9 +404,6 @@
     <t>b: 1207 d: 1272</t>
   </si>
   <si>
-    <t>“King of England”</t>
-  </si>
-  <si>
     <t>Eleanor DeProvence</t>
   </si>
   <si>
@@ -729,18 +716,12 @@
     <t>b: 1864 d: 1935</t>
   </si>
   <si>
-    <t>Polly Ann “Sis” (WILLARD) HOUSE</t>
-  </si>
-  <si>
     <t>b: 1871 d: 1940</t>
   </si>
   <si>
     <t>Sarah Elizabeth “Lizzie” (HOUSE) TURNER</t>
   </si>
   <si>
-    <t>aka “Grandma Campbell”</t>
-  </si>
-  <si>
     <t>b: 1889 d: 1962</t>
   </si>
   <si>
@@ -864,9 +845,6 @@
     <t>Marie of Gueldrea</t>
   </si>
   <si>
-    <t>(Mary of Guelders)</t>
-  </si>
-  <si>
     <t>b: 1434 d: 1463</t>
   </si>
   <si>
@@ -912,9 +890,6 @@
     <t>Mary Stuart</t>
   </si>
   <si>
-    <t>aka Mary Queen of Scots</t>
-  </si>
-  <si>
     <t>b: 1542 d: 1586/88</t>
   </si>
   <si>
@@ -1266,12 +1241,6 @@
     <t>Sybilla of Northumbria</t>
   </si>
   <si>
-    <t>“6th Baron of Mowbray”</t>
-  </si>
-  <si>
-    <t>“Baroness of Mowbray”</t>
-  </si>
-  <si>
     <t>Bethoc (Beatrix?)</t>
   </si>
   <si>
@@ -1314,9 +1283,6 @@
     <t>b: 834 d: 859</t>
   </si>
   <si>
-    <t>Pict “Throne Princess”</t>
-  </si>
-  <si>
     <t>Princess of the Picts</t>
   </si>
   <si>
@@ -1729,6 +1695,45 @@
   </si>
   <si>
     <t>Carl Leslie ATEN</t>
+  </si>
+  <si>
+    <t>11th Earl Arundel</t>
+  </si>
+  <si>
+    <t>6th Baron of Mowbray</t>
+  </si>
+  <si>
+    <t>Baroness of Mowbray</t>
+  </si>
+  <si>
+    <t>Countess of Arundel</t>
+  </si>
+  <si>
+    <t>Lady and Duchess Norfolk</t>
+  </si>
+  <si>
+    <t>4th Duke of Norfolk</t>
+  </si>
+  <si>
+    <t>1st President of the USA</t>
+  </si>
+  <si>
+    <t>Earl of Arundel</t>
+  </si>
+  <si>
+    <t>Polly Ann "Sis" (WILLARD) HOUSE</t>
+  </si>
+  <si>
+    <t>aka "Grandma Campbell"</t>
+  </si>
+  <si>
+    <t>aka "Mary Queen of Scots"</t>
+  </si>
+  <si>
+    <t>aka "Mary of Guelders"</t>
+  </si>
+  <si>
+    <t>Pict "Throne Princess"</t>
   </si>
 </sst>
 </file>
@@ -4256,6 +4261,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4586,11 +4596,11 @@
   </sheetPr>
   <dimension ref="C33:AHQ228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY40" zoomScale="25" zoomScaleNormal="25" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="AGE52" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="KQ197" sqref="KQ197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
@@ -4982,18 +4992,18 @@
     <col min="901" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="33" spans="72:123">
+    <row r="33" spans="72:123" x14ac:dyDescent="0.2">
       <c r="BT33" s="6"/>
     </row>
-    <row r="34" spans="72:123">
+    <row r="34" spans="72:123" x14ac:dyDescent="0.2">
       <c r="BT34" s="6"/>
     </row>
-    <row r="44" spans="72:123">
+    <row r="44" spans="72:123" x14ac:dyDescent="0.2">
       <c r="DQ44" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="72:123">
+    <row r="45" spans="72:123" x14ac:dyDescent="0.2">
       <c r="DJ45" s="9"/>
       <c r="DM45" s="6"/>
       <c r="DN45" s="8"/>
@@ -5003,7 +5013,7 @@
       <c r="DR45" s="8"/>
       <c r="DS45" s="8"/>
     </row>
-    <row r="46" spans="72:123">
+    <row r="46" spans="72:123" x14ac:dyDescent="0.2">
       <c r="DJ46" s="2" t="s">
         <v>9</v>
       </c>
@@ -5015,7 +5025,7 @@
       </c>
       <c r="DS46" s="8"/>
     </row>
-    <row r="47" spans="72:123">
+    <row r="47" spans="72:123" x14ac:dyDescent="0.2">
       <c r="DD47" s="6"/>
       <c r="DE47" s="6"/>
       <c r="DF47" s="6"/>
@@ -5030,7 +5040,7 @@
       <c r="DO47" s="6"/>
       <c r="DS47" s="8"/>
     </row>
-    <row r="48" spans="72:123">
+    <row r="48" spans="72:123" x14ac:dyDescent="0.2">
       <c r="DC48" s="2" t="s">
         <v>11</v>
       </c>
@@ -5051,14 +5061,16 @@
       </c>
       <c r="DS48" s="8"/>
     </row>
-    <row r="49" spans="45:901">
+    <row r="49" spans="45:901" x14ac:dyDescent="0.2">
       <c r="CW49" s="6"/>
       <c r="CX49" s="6"/>
       <c r="CY49" s="6"/>
       <c r="CZ49" s="8"/>
       <c r="DA49" s="8"/>
       <c r="DB49" s="8"/>
-      <c r="DC49" s="2"/>
+      <c r="DC49" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="DD49" s="8"/>
       <c r="DE49" s="8"/>
       <c r="DF49" s="8"/>
@@ -5073,7 +5085,7 @@
       <c r="DQ49" s="3"/>
       <c r="DS49" s="8"/>
     </row>
-    <row r="50" spans="45:901">
+    <row r="50" spans="45:901" x14ac:dyDescent="0.2">
       <c r="CW50" s="6"/>
       <c r="CX50" s="6"/>
       <c r="CY50" s="6"/>
@@ -5095,10 +5107,10 @@
       </c>
       <c r="DS50" s="8"/>
       <c r="DX50" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="45:901">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="45:901" x14ac:dyDescent="0.2">
       <c r="CW51" s="8"/>
       <c r="CX51" s="8"/>
       <c r="CY51" s="8"/>
@@ -5118,7 +5130,7 @@
       <c r="DW51" s="8"/>
       <c r="DX51" s="2"/>
     </row>
-    <row r="52" spans="45:901">
+    <row r="52" spans="45:901" x14ac:dyDescent="0.2">
       <c r="CW52" s="6"/>
       <c r="CX52" s="6"/>
       <c r="CY52" s="6"/>
@@ -5141,10 +5153,10 @@
       <c r="DV52" s="6"/>
       <c r="DW52" s="6"/>
       <c r="DX52" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="45:901">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="45:901" x14ac:dyDescent="0.2">
       <c r="CW53" s="6"/>
       <c r="CX53" s="6"/>
       <c r="CY53" s="6"/>
@@ -5158,7 +5170,7 @@
       <c r="DV53" s="6"/>
       <c r="DW53" s="6"/>
     </row>
-    <row r="54" spans="45:901">
+    <row r="54" spans="45:901" x14ac:dyDescent="0.2">
       <c r="CA54" s="2" t="s">
         <v>33</v>
       </c>
@@ -5171,13 +5183,13 @@
       <c r="DV54" s="6"/>
       <c r="DW54" s="6"/>
       <c r="DX54" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="HR54" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="45:901">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="45:901" x14ac:dyDescent="0.2">
       <c r="BU55" s="6"/>
       <c r="BV55" s="6"/>
       <c r="BW55" s="6"/>
@@ -5200,7 +5212,7 @@
       <c r="HQ55" s="8"/>
       <c r="HR55" s="2"/>
     </row>
-    <row r="56" spans="45:901" ht="16" thickBot="1">
+    <row r="56" spans="45:901" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="BT56" s="2" t="s">
         <v>37</v>
       </c>
@@ -5218,11 +5230,11 @@
       </c>
       <c r="DS56" s="8"/>
       <c r="DX56" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="FT56" s="6"/>
       <c r="HK56" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="HL56" s="6"/>
       <c r="HM56" s="6"/>
@@ -5231,10 +5243,10 @@
       <c r="HP56" s="6"/>
       <c r="HQ56" s="6"/>
       <c r="HR56" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="45:901">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="45:901" x14ac:dyDescent="0.2">
       <c r="BN57" s="6"/>
       <c r="BO57" s="6"/>
       <c r="BP57" s="6"/>
@@ -5264,7 +5276,7 @@
       <c r="HI57" s="8"/>
       <c r="HJ57" s="8"/>
       <c r="HK57" s="2" t="s">
-        <v>130</v>
+        <v>516</v>
       </c>
       <c r="HL57" s="8"/>
       <c r="HM57" s="8"/>
@@ -5279,14 +5291,14 @@
       <c r="AHL57" s="6"/>
       <c r="AHM57" s="6"/>
       <c r="AHN57" s="12" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="AHP57" s="13" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="AHQ57" s="14"/>
     </row>
-    <row r="58" spans="45:901">
+    <row r="58" spans="45:901" x14ac:dyDescent="0.2">
       <c r="BN58" s="6"/>
       <c r="BO58" s="6"/>
       <c r="BP58" s="6"/>
@@ -5326,7 +5338,7 @@
       <c r="DS58" s="8"/>
       <c r="FT58" s="6"/>
       <c r="HD58" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="HE58" s="6"/>
       <c r="HF58" s="6"/>
@@ -5335,7 +5347,7 @@
       <c r="HI58" s="6"/>
       <c r="HJ58" s="6"/>
       <c r="HK58" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="HL58" s="6"/>
       <c r="HM58" s="6"/>
@@ -5353,7 +5365,7 @@
       <c r="AHP58" s="15"/>
       <c r="AHQ58" s="16"/>
     </row>
-    <row r="59" spans="45:901">
+    <row r="59" spans="45:901" x14ac:dyDescent="0.2">
       <c r="BF59" s="2" t="s">
         <v>41</v>
       </c>
@@ -5404,7 +5416,7 @@
       <c r="HB59" s="8"/>
       <c r="HC59" s="8"/>
       <c r="HD59" s="2" t="s">
-        <v>130</v>
+        <v>516</v>
       </c>
       <c r="HE59" s="8"/>
       <c r="HF59" s="8"/>
@@ -5426,7 +5438,7 @@
       <c r="AHE59" s="6"/>
       <c r="AHF59" s="6"/>
       <c r="AHG59" s="12" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="AHH59" s="6"/>
       <c r="AHI59" s="6"/>
@@ -5440,7 +5452,7 @@
       <c r="AHP59" s="15"/>
       <c r="AHQ59" s="16"/>
     </row>
-    <row r="60" spans="45:901">
+    <row r="60" spans="45:901" x14ac:dyDescent="0.2">
       <c r="AZ60" s="6"/>
       <c r="BA60" s="6"/>
       <c r="BB60" s="6"/>
@@ -5498,7 +5510,7 @@
       </c>
       <c r="FT60" s="6"/>
       <c r="GW60" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="GX60" s="6"/>
       <c r="GY60" s="6"/>
@@ -5507,7 +5519,7 @@
       <c r="HB60" s="6"/>
       <c r="HC60" s="6"/>
       <c r="HD60" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="HE60" s="6"/>
       <c r="HF60" s="6"/>
@@ -5516,7 +5528,7 @@
       <c r="HI60" s="6"/>
       <c r="HJ60" s="6"/>
       <c r="HK60" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AHA60" s="6"/>
       <c r="AHB60" s="6"/>
@@ -5535,7 +5547,7 @@
       <c r="AHP60" s="15"/>
       <c r="AHQ60" s="16"/>
     </row>
-    <row r="61" spans="45:901">
+    <row r="61" spans="45:901" x14ac:dyDescent="0.2">
       <c r="AY61" s="2" t="s">
         <v>43</v>
       </c>
@@ -5603,7 +5615,7 @@
       <c r="GU61" s="8"/>
       <c r="GV61" s="8"/>
       <c r="GW61" s="2" t="s">
-        <v>130</v>
+        <v>516</v>
       </c>
       <c r="GX61" s="8"/>
       <c r="GY61" s="8"/>
@@ -5626,7 +5638,7 @@
       <c r="AGX61" s="6"/>
       <c r="AGY61" s="6"/>
       <c r="AGZ61" s="12" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="AHA61" s="6"/>
       <c r="AHB61" s="6"/>
@@ -5644,12 +5656,12 @@
       <c r="AHL61" s="8"/>
       <c r="AHM61" s="6"/>
       <c r="AHN61" s="7" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="AHP61" s="15"/>
       <c r="AHQ61" s="16"/>
     </row>
-    <row r="62" spans="45:901">
+    <row r="62" spans="45:901" x14ac:dyDescent="0.2">
       <c r="AS62" s="6"/>
       <c r="AT62" s="6"/>
       <c r="AU62" s="6"/>
@@ -5713,10 +5725,10 @@
       <c r="DO62" s="6"/>
       <c r="DP62" s="6"/>
       <c r="DQ62" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="FN62" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="FO62" s="6"/>
       <c r="FP62" s="6"/>
@@ -5730,10 +5742,10 @@
       <c r="FZ62" s="6"/>
       <c r="GA62" s="6"/>
       <c r="GB62" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="GP62" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="GQ62" s="6"/>
       <c r="GS62" s="6"/>
@@ -5741,7 +5753,7 @@
       <c r="GU62" s="6"/>
       <c r="GV62" s="6"/>
       <c r="GW62" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="GX62" s="6"/>
       <c r="GY62" s="6"/>
@@ -5750,10 +5762,10 @@
       <c r="HB62" s="6"/>
       <c r="HC62" s="6"/>
       <c r="HD62" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="HK62" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AGT62" s="6"/>
       <c r="AGU62" s="6"/>
@@ -5779,7 +5791,7 @@
       <c r="AHP62" s="15"/>
       <c r="AHQ62" s="16"/>
     </row>
-    <row r="63" spans="45:901" ht="16" thickBot="1">
+    <row r="63" spans="45:901" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AS63" s="6"/>
       <c r="AT63" s="6"/>
       <c r="AU63" s="6"/>
@@ -5834,7 +5846,7 @@
       <c r="DO63" s="8"/>
       <c r="DP63" s="8"/>
       <c r="DQ63" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="FH63" s="6"/>
       <c r="FI63" s="6"/>
@@ -5843,7 +5855,7 @@
       <c r="FL63" s="8"/>
       <c r="FM63" s="8"/>
       <c r="FN63" s="10" t="s">
-        <v>414</v>
+        <v>557</v>
       </c>
       <c r="FO63" s="6"/>
       <c r="FP63" s="6"/>
@@ -5857,7 +5869,7 @@
       <c r="FZ63" s="8"/>
       <c r="GA63" s="8"/>
       <c r="GB63" s="2" t="s">
-        <v>119</v>
+        <v>563</v>
       </c>
       <c r="GJ63" s="6"/>
       <c r="GK63" s="6"/>
@@ -5866,7 +5878,7 @@
       <c r="GN63" s="8"/>
       <c r="GO63" s="8"/>
       <c r="GP63" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="GQ63" s="8"/>
       <c r="GR63" s="8"/>
@@ -5888,7 +5900,7 @@
       <c r="AGQ63" s="6"/>
       <c r="AGR63" s="6"/>
       <c r="AGS63" s="12" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="AGT63" s="6"/>
       <c r="AGU63" s="6"/>
@@ -5918,7 +5930,7 @@
       <c r="AHP63" s="17"/>
       <c r="AHQ63" s="18"/>
     </row>
-    <row r="64" spans="45:901">
+    <row r="64" spans="45:901" x14ac:dyDescent="0.2">
       <c r="AV64" s="8"/>
       <c r="AW64" s="6"/>
       <c r="AX64" s="6"/>
@@ -5978,7 +5990,7 @@
       <c r="FL64" s="6"/>
       <c r="FM64" s="6"/>
       <c r="FN64" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="FO64" s="6"/>
       <c r="FP64" s="6"/>
@@ -5987,17 +5999,17 @@
       <c r="FS64" s="6"/>
       <c r="FT64" s="6"/>
       <c r="FU64" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="FW64" s="6"/>
       <c r="FY64" s="8"/>
       <c r="FZ64" s="6"/>
       <c r="GA64" s="6"/>
       <c r="GB64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="GI64" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="GI64" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="GJ64" s="6"/>
       <c r="GK64" s="6"/>
@@ -6006,7 +6018,7 @@
       <c r="GN64" s="6"/>
       <c r="GO64" s="6"/>
       <c r="GP64" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="GQ64" s="6"/>
       <c r="GS64" s="6"/>
@@ -6014,10 +6026,10 @@
       <c r="GU64" s="6"/>
       <c r="GV64" s="6"/>
       <c r="GW64" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="HD64" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AGM64" s="6"/>
       <c r="AGN64" s="6"/>
@@ -6041,7 +6053,7 @@
       <c r="AHF64" s="8"/>
       <c r="AHG64" s="7"/>
     </row>
-    <row r="65" spans="45:891">
+    <row r="65" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AV65" s="8"/>
       <c r="AW65" s="6"/>
       <c r="AX65" s="6"/>
@@ -6088,7 +6100,7 @@
       <c r="FS65" s="8"/>
       <c r="FT65" s="8"/>
       <c r="FU65" s="2" t="s">
-        <v>113</v>
+        <v>556</v>
       </c>
       <c r="FV65" s="8"/>
       <c r="FW65" s="8"/>
@@ -6122,7 +6134,7 @@
       <c r="AGJ65" s="6"/>
       <c r="AGK65" s="6"/>
       <c r="AGL65" s="12" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="AGM65" s="6"/>
       <c r="AGN65" s="6"/>
@@ -6150,7 +6162,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="45:891">
+    <row r="66" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AS66" s="6"/>
       <c r="AT66" s="6"/>
       <c r="AU66" s="6"/>
@@ -6188,7 +6200,7 @@
       <c r="FL66" s="6"/>
       <c r="FM66" s="6"/>
       <c r="FN66" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="FO66" s="6"/>
       <c r="FP66" s="6"/>
@@ -6197,14 +6209,14 @@
       <c r="FS66" s="6"/>
       <c r="FT66" s="6"/>
       <c r="FU66" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="FW66" s="6"/>
       <c r="FY66" s="8"/>
       <c r="FZ66" s="6"/>
       <c r="GA66" s="6"/>
       <c r="GB66" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="GC66" s="6"/>
       <c r="GD66" s="6"/>
@@ -6213,7 +6225,7 @@
       <c r="GG66" s="6"/>
       <c r="GH66" s="6"/>
       <c r="GI66" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="GJ66" s="6"/>
       <c r="GK66" s="6"/>
@@ -6222,11 +6234,11 @@
       <c r="GN66" s="6"/>
       <c r="GO66" s="6"/>
       <c r="GP66" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="GT66" s="8"/>
       <c r="GW66" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AGF66" s="6"/>
       <c r="AGG66" s="6"/>
@@ -6250,7 +6262,7 @@
       <c r="AGY66" s="8"/>
       <c r="AGZ66" s="7"/>
     </row>
-    <row r="67" spans="45:891">
+    <row r="67" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AS67" s="6"/>
       <c r="AT67" s="6"/>
       <c r="AU67" s="6"/>
@@ -6277,7 +6289,7 @@
       <c r="FL67" s="8"/>
       <c r="FM67" s="8"/>
       <c r="FN67" s="11" t="s">
-        <v>415</v>
+        <v>558</v>
       </c>
       <c r="FO67" s="8"/>
       <c r="FP67" s="8"/>
@@ -6313,7 +6325,7 @@
       <c r="AGC67" s="6"/>
       <c r="AGD67" s="6"/>
       <c r="AGE67" s="12" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="AGF67" s="6"/>
       <c r="AGG67" s="6"/>
@@ -6341,7 +6353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="45:891">
+    <row r="68" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AS68" s="6"/>
       <c r="AT68" s="6"/>
       <c r="AU68" s="6"/>
@@ -6351,7 +6363,7 @@
         <v>80</v>
       </c>
       <c r="ES68" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="ET68" s="6"/>
       <c r="EU68" s="6"/>
@@ -6372,7 +6384,7 @@
         <v>103</v>
       </c>
       <c r="FN68" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="FO68" s="6"/>
       <c r="FP68" s="6"/>
@@ -6381,10 +6393,10 @@
       <c r="FS68" s="6"/>
       <c r="FT68" s="6"/>
       <c r="FU68" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="GB68" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="GB68" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="GC68" s="6"/>
       <c r="GD68" s="6"/>
@@ -6393,10 +6405,10 @@
       <c r="GG68" s="6"/>
       <c r="GH68" s="6"/>
       <c r="GI68" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="GP68" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="GT68" s="8"/>
       <c r="AFY68" s="6"/>
@@ -6421,7 +6433,7 @@
       <c r="AGR68" s="8"/>
       <c r="AGS68" s="7"/>
     </row>
-    <row r="69" spans="45:891">
+    <row r="69" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AV69" s="8"/>
       <c r="BQ69" s="8"/>
       <c r="BR69" s="6"/>
@@ -6444,7 +6456,7 @@
       <c r="EQ69" s="8"/>
       <c r="ER69" s="8"/>
       <c r="ES69" s="2" t="s">
-        <v>106</v>
+        <v>561</v>
       </c>
       <c r="ET69" s="8"/>
       <c r="EU69" s="8"/>
@@ -6460,7 +6472,7 @@
       <c r="FE69" s="8"/>
       <c r="FF69" s="8"/>
       <c r="FG69" s="4" t="s">
-        <v>104</v>
+        <v>560</v>
       </c>
       <c r="FP69" s="6"/>
       <c r="FQ69" s="6"/>
@@ -6468,7 +6480,7 @@
       <c r="FS69" s="8"/>
       <c r="FT69" s="8"/>
       <c r="FU69" s="3" t="s">
-        <v>115</v>
+        <v>559</v>
       </c>
       <c r="GC69" s="6"/>
       <c r="GD69" s="6"/>
@@ -6485,7 +6497,7 @@
       <c r="AFV69" s="6"/>
       <c r="AFW69" s="6"/>
       <c r="AFX69" s="12" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="AFY69" s="6"/>
       <c r="AFZ69" s="6"/>
@@ -6513,7 +6525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="45:891">
+    <row r="70" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AS70" s="6"/>
       <c r="AV70" s="8"/>
       <c r="AY70" s="6"/>
@@ -6569,10 +6581,10 @@
       <c r="FS70" s="6"/>
       <c r="FT70" s="6"/>
       <c r="FU70" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="GI70" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="GT70" s="8"/>
       <c r="AFR70" s="6"/>
@@ -6597,7 +6609,7 @@
       <c r="AGK70" s="8"/>
       <c r="AGL70" s="7"/>
     </row>
-    <row r="71" spans="45:891">
+    <row r="71" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AS71" s="6"/>
       <c r="AV71" s="8"/>
       <c r="AY71" s="6"/>
@@ -6654,7 +6666,7 @@
       <c r="AFO71" s="6"/>
       <c r="AFP71" s="6"/>
       <c r="AFQ71" s="12" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="AFR71" s="6"/>
       <c r="AFS71" s="6"/>
@@ -6682,7 +6694,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="45:891">
+    <row r="72" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AS72" s="8"/>
       <c r="AT72" s="8"/>
       <c r="AU72" s="8"/>
@@ -6764,7 +6776,7 @@
       <c r="AGD72" s="8"/>
       <c r="AGE72" s="7"/>
     </row>
-    <row r="73" spans="45:891">
+    <row r="73" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AV73" s="8"/>
       <c r="AZ73" s="6"/>
       <c r="CW73" s="6"/>
@@ -6824,7 +6836,7 @@
       <c r="AFH73" s="6"/>
       <c r="AFI73" s="6"/>
       <c r="AFJ73" s="12" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="AFK73" s="6"/>
       <c r="AFL73" s="6"/>
@@ -6852,7 +6864,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="45:891">
+    <row r="74" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AV74" s="8"/>
       <c r="AZ74" s="6"/>
       <c r="BT74" s="2" t="s">
@@ -6915,11 +6927,11 @@
       </c>
       <c r="GC74" s="6"/>
       <c r="GI74" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="GT74" s="8"/>
       <c r="GW74" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="AFD74" s="6"/>
       <c r="AFE74" s="6"/>
@@ -6943,7 +6955,7 @@
       <c r="AFW74" s="8"/>
       <c r="AFX74" s="7"/>
     </row>
-    <row r="75" spans="45:891">
+    <row r="75" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AV75" s="8"/>
       <c r="AZ75" s="6"/>
       <c r="BN75" s="6"/>
@@ -7007,7 +7019,7 @@
       <c r="GU75" s="8"/>
       <c r="GV75" s="8"/>
       <c r="GW75" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AEW75" s="6"/>
       <c r="AEX75" s="6"/>
@@ -7016,7 +7028,7 @@
       <c r="AFA75" s="6"/>
       <c r="AFB75" s="6"/>
       <c r="AFC75" s="12" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="AFD75" s="6"/>
       <c r="AFE75" s="6"/>
@@ -7044,7 +7056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="45:891">
+    <row r="76" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AV76" s="8"/>
       <c r="AZ76" s="6"/>
       <c r="BM76" s="2" t="s">
@@ -7103,7 +7115,7 @@
       </c>
       <c r="FV76" s="6"/>
       <c r="GB76" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="GC76" s="6"/>
       <c r="GD76" s="6"/>
@@ -7112,10 +7124,10 @@
       <c r="GG76" s="6"/>
       <c r="GH76" s="6"/>
       <c r="GI76" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="GP76" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="GQ76" s="6"/>
       <c r="GS76" s="6"/>
@@ -7123,7 +7135,7 @@
       <c r="GU76" s="6"/>
       <c r="GV76" s="6"/>
       <c r="GW76" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AEW76" s="6"/>
       <c r="AEX76" s="6"/>
@@ -7147,7 +7159,7 @@
       <c r="AFP76" s="8"/>
       <c r="AFQ76" s="7"/>
     </row>
-    <row r="77" spans="45:891">
+    <row r="77" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AV77" s="8"/>
       <c r="AZ77" s="6"/>
       <c r="BG77" s="6"/>
@@ -7232,7 +7244,7 @@
       <c r="AET77" s="6"/>
       <c r="AEU77" s="6"/>
       <c r="AEV77" s="12" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="AEW77" s="6"/>
       <c r="AEX77" s="6"/>
@@ -7260,7 +7272,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="45:891">
+    <row r="78" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AV78" s="8"/>
       <c r="BF78" s="2" t="s">
         <v>47</v>
@@ -7321,7 +7333,7 @@
       </c>
       <c r="FO78" s="6"/>
       <c r="FU78" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="FV78" s="6"/>
       <c r="FW78" s="6"/>
@@ -7330,7 +7342,7 @@
       <c r="FZ78" s="6"/>
       <c r="GA78" s="6"/>
       <c r="GB78" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="GC78" s="6"/>
       <c r="GD78" s="6"/>
@@ -7339,7 +7351,7 @@
       <c r="GG78" s="6"/>
       <c r="GH78" s="6"/>
       <c r="GI78" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="GJ78" s="6"/>
       <c r="GK78" s="6"/>
@@ -7348,7 +7360,7 @@
       <c r="GN78" s="6"/>
       <c r="GO78" s="6"/>
       <c r="GP78" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="GQ78" s="6"/>
       <c r="GR78" s="8"/>
@@ -7357,7 +7369,7 @@
       <c r="GU78" s="6"/>
       <c r="GV78" s="6"/>
       <c r="GW78" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AAV78" s="6"/>
       <c r="AAW78" s="6"/>
@@ -7366,7 +7378,7 @@
       <c r="AAZ78" s="6"/>
       <c r="ABA78" s="6"/>
       <c r="ABB78" s="12" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="AEP78" s="6"/>
       <c r="AEQ78" s="6"/>
@@ -7390,7 +7402,7 @@
       <c r="AFI78" s="8"/>
       <c r="AFJ78" s="7"/>
     </row>
-    <row r="79" spans="45:891">
+    <row r="79" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AV79" s="8"/>
       <c r="BC79" s="8"/>
       <c r="BD79" s="8"/>
@@ -7486,7 +7498,7 @@
       <c r="AEM79" s="6"/>
       <c r="AEN79" s="6"/>
       <c r="AEO79" s="12" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="AEP79" s="6"/>
       <c r="AEQ79" s="6"/>
@@ -7514,7 +7526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="45:891">
+    <row r="80" spans="45:891" x14ac:dyDescent="0.2">
       <c r="AV80" s="8"/>
       <c r="AW80" s="6"/>
       <c r="AX80" s="6"/>
@@ -7571,7 +7583,7 @@
       </c>
       <c r="FH80" s="6"/>
       <c r="FN80" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="FO80" s="6"/>
       <c r="FP80" s="6"/>
@@ -7580,7 +7592,7 @@
       <c r="FS80" s="6"/>
       <c r="FT80" s="6"/>
       <c r="FU80" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="FV80" s="6"/>
       <c r="FW80" s="6"/>
@@ -7589,10 +7601,10 @@
       <c r="FZ80" s="6"/>
       <c r="GA80" s="6"/>
       <c r="GB80" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="GI80" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="GJ80" s="6"/>
       <c r="GK80" s="6"/>
@@ -7601,11 +7613,11 @@
       <c r="GN80" s="6"/>
       <c r="GO80" s="6"/>
       <c r="GP80" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="GR80" s="8"/>
       <c r="GW80" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AAO80" s="6"/>
       <c r="AAP80" s="6"/>
@@ -7614,7 +7626,7 @@
       <c r="AAS80" s="6"/>
       <c r="AAT80" s="6"/>
       <c r="AAU80" s="12" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="AAV80" s="6"/>
       <c r="AAW80" s="6"/>
@@ -7648,7 +7660,7 @@
       <c r="AFB80" s="8"/>
       <c r="AFC80" s="7"/>
     </row>
-    <row r="81" spans="48:835">
+    <row r="81" spans="48:835" x14ac:dyDescent="0.2">
       <c r="AV81" s="8"/>
       <c r="AW81" s="8"/>
       <c r="AX81" s="8"/>
@@ -7738,7 +7750,7 @@
       <c r="AEF81" s="6"/>
       <c r="AEG81" s="6"/>
       <c r="AEH81" s="12" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="AEI81" s="6"/>
       <c r="AEJ81" s="6"/>
@@ -7766,7 +7778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="48:835">
+    <row r="82" spans="48:835" x14ac:dyDescent="0.2">
       <c r="AY82" s="3" t="s">
         <v>46</v>
       </c>
@@ -7796,7 +7808,7 @@
       </c>
       <c r="FA82" s="6"/>
       <c r="FG82" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="FH82" s="6"/>
       <c r="FI82" s="6"/>
@@ -7805,7 +7817,7 @@
       <c r="FL82" s="6"/>
       <c r="FM82" s="6"/>
       <c r="FN82" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="FO82" s="6"/>
       <c r="FP82" s="6"/>
@@ -7814,14 +7826,14 @@
       <c r="FS82" s="6"/>
       <c r="FT82" s="6"/>
       <c r="FU82" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="GB82" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="GJ82" s="6"/>
       <c r="GP82" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="GR82" s="8"/>
       <c r="GW82" s="6"/>
@@ -7832,7 +7844,7 @@
       <c r="AAL82" s="6"/>
       <c r="AAM82" s="6"/>
       <c r="AAN82" s="12" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="AAO82" s="6"/>
       <c r="AAP82" s="6"/>
@@ -7873,7 +7885,7 @@
       <c r="AEU82" s="8"/>
       <c r="AEV82" s="7"/>
     </row>
-    <row r="83" spans="48:835">
+    <row r="83" spans="48:835" x14ac:dyDescent="0.2">
       <c r="BC83" s="8"/>
       <c r="BD83" s="8"/>
       <c r="BE83" s="8"/>
@@ -7935,7 +7947,7 @@
       <c r="ADY83" s="6"/>
       <c r="ADZ83" s="6"/>
       <c r="AEA83" s="12" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="AEB83" s="6"/>
       <c r="AEC83" s="6"/>
@@ -7963,7 +7975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="48:835">
+    <row r="84" spans="48:835" x14ac:dyDescent="0.2">
       <c r="BF84" s="3" t="s">
         <v>50</v>
       </c>
@@ -7972,7 +7984,7 @@
       </c>
       <c r="ET84" s="6"/>
       <c r="EZ84" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="FA84" s="6"/>
       <c r="FB84" s="6"/>
@@ -7981,7 +7993,7 @@
       <c r="FE84" s="6"/>
       <c r="FF84" s="6"/>
       <c r="FG84" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="FH84" s="6"/>
       <c r="FI84" s="6"/>
@@ -7990,10 +8002,10 @@
       <c r="FL84" s="6"/>
       <c r="FM84" s="6"/>
       <c r="FN84" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="FU84" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="GR84" s="8"/>
       <c r="AAA84" s="6"/>
@@ -8003,7 +8015,7 @@
       <c r="AAE84" s="6"/>
       <c r="AAF84" s="6"/>
       <c r="AAG84" s="12" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="AAH84" s="6"/>
       <c r="AAI84" s="6"/>
@@ -8053,7 +8065,7 @@
       <c r="AEN84" s="8"/>
       <c r="AEO84" s="7"/>
     </row>
-    <row r="85" spans="48:835">
+    <row r="85" spans="48:835" x14ac:dyDescent="0.2">
       <c r="ET85" s="6"/>
       <c r="EU85" s="6"/>
       <c r="EV85" s="6"/>
@@ -8104,7 +8116,7 @@
       <c r="ADR85" s="6"/>
       <c r="ADS85" s="6"/>
       <c r="ADT85" s="12" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="ADU85" s="6"/>
       <c r="ADV85" s="6"/>
@@ -8132,10 +8144,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="48:835">
+    <row r="86" spans="48:835" x14ac:dyDescent="0.2">
       <c r="EM86" s="6"/>
       <c r="ES86" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="ET86" s="6"/>
       <c r="EU86" s="6"/>
@@ -8144,7 +8156,7 @@
       <c r="EX86" s="6"/>
       <c r="EY86" s="6"/>
       <c r="EZ86" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="FA86" s="6"/>
       <c r="FB86" s="6"/>
@@ -8153,10 +8165,10 @@
       <c r="FE86" s="6"/>
       <c r="FF86" s="6"/>
       <c r="FG86" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="FN86" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="GR86" s="8"/>
       <c r="ZT86" s="6"/>
@@ -8166,7 +8178,7 @@
       <c r="ZX86" s="6"/>
       <c r="ZY86" s="6"/>
       <c r="ZZ86" s="12" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="AAA86" s="6"/>
       <c r="AAB86" s="6"/>
@@ -8216,7 +8228,7 @@
       <c r="AEG86" s="8"/>
       <c r="AEH86" s="7"/>
     </row>
-    <row r="87" spans="48:835">
+    <row r="87" spans="48:835" x14ac:dyDescent="0.2">
       <c r="EM87" s="6"/>
       <c r="EN87" s="6"/>
       <c r="EO87" s="6"/>
@@ -8267,7 +8279,7 @@
       <c r="ADK87" s="6"/>
       <c r="ADL87" s="6"/>
       <c r="ADM87" s="12" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="ADN87" s="6"/>
       <c r="ADO87" s="6"/>
@@ -8295,10 +8307,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="48:835">
+    <row r="88" spans="48:835" x14ac:dyDescent="0.2">
       <c r="EF88" s="6"/>
       <c r="EL88" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="EM88" s="6"/>
       <c r="EN88" s="6"/>
@@ -8307,7 +8319,7 @@
       <c r="EQ88" s="6"/>
       <c r="ER88" s="6"/>
       <c r="ES88" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="ET88" s="6"/>
       <c r="EU88" s="6"/>
@@ -8316,10 +8328,10 @@
       <c r="EX88" s="6"/>
       <c r="EY88" s="6"/>
       <c r="EZ88" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="FG88" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="GR88" s="8"/>
       <c r="ZM88" s="6"/>
@@ -8329,7 +8341,7 @@
       <c r="ZQ88" s="6"/>
       <c r="ZR88" s="6"/>
       <c r="ZS88" s="12" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="ZT88" s="6"/>
       <c r="ZU88" s="6"/>
@@ -8379,7 +8391,7 @@
       <c r="ADZ88" s="8"/>
       <c r="AEA88" s="7"/>
     </row>
-    <row r="89" spans="48:835">
+    <row r="89" spans="48:835" x14ac:dyDescent="0.2">
       <c r="EF89" s="6"/>
       <c r="EG89" s="6"/>
       <c r="EH89" s="6"/>
@@ -8430,7 +8442,7 @@
       <c r="ADD89" s="6"/>
       <c r="ADE89" s="6"/>
       <c r="ADF89" s="12" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="ADG89" s="6"/>
       <c r="ADH89" s="6"/>
@@ -8458,11 +8470,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="48:835">
+    <row r="90" spans="48:835" x14ac:dyDescent="0.2">
       <c r="BM90" s="6"/>
       <c r="DY90" s="6"/>
       <c r="EE90" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="EF90" s="6"/>
       <c r="EG90" s="6"/>
@@ -8471,7 +8483,7 @@
       <c r="EJ90" s="6"/>
       <c r="EK90" s="6"/>
       <c r="EL90" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="EM90" s="6"/>
       <c r="EN90" s="6"/>
@@ -8480,10 +8492,10 @@
       <c r="EQ90" s="6"/>
       <c r="ER90" s="6"/>
       <c r="ES90" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="EZ90" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="GR90" s="8"/>
       <c r="ZF90" s="6"/>
@@ -8493,7 +8505,7 @@
       <c r="ZJ90" s="6"/>
       <c r="ZK90" s="6"/>
       <c r="ZL90" s="12" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="ZM90" s="6"/>
       <c r="ZN90" s="6"/>
@@ -8543,7 +8555,7 @@
       <c r="ADS90" s="8"/>
       <c r="ADT90" s="7"/>
     </row>
-    <row r="91" spans="48:835">
+    <row r="91" spans="48:835" x14ac:dyDescent="0.2">
       <c r="BM91" s="6"/>
       <c r="DY91" s="6"/>
       <c r="DZ91" s="6"/>
@@ -8595,7 +8607,7 @@
       <c r="ACW91" s="6"/>
       <c r="ACX91" s="6"/>
       <c r="ACY91" s="12" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="ACZ91" s="6"/>
       <c r="ADA91" s="6"/>
@@ -8623,10 +8635,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="48:835">
+    <row r="92" spans="48:835" x14ac:dyDescent="0.2">
       <c r="DR92" s="6"/>
       <c r="DX92" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="DY92" s="6"/>
       <c r="DZ92" s="6"/>
@@ -8635,7 +8647,7 @@
       <c r="EC92" s="6"/>
       <c r="ED92" s="6"/>
       <c r="EE92" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="EF92" s="6"/>
       <c r="EG92" s="6"/>
@@ -8644,10 +8656,10 @@
       <c r="EJ92" s="6"/>
       <c r="EK92" s="6"/>
       <c r="EL92" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="ES92" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="GR92" s="8"/>
       <c r="YY92" s="6"/>
@@ -8657,7 +8669,7 @@
       <c r="ZC92" s="6"/>
       <c r="ZD92" s="6"/>
       <c r="ZE92" s="12" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="ZF92" s="6"/>
       <c r="ZG92" s="6"/>
@@ -8707,7 +8719,7 @@
       <c r="ADL92" s="8"/>
       <c r="ADM92" s="7"/>
     </row>
-    <row r="93" spans="48:835">
+    <row r="93" spans="48:835" x14ac:dyDescent="0.2">
       <c r="DR93" s="6"/>
       <c r="DS93" s="6"/>
       <c r="DT93" s="6"/>
@@ -8758,7 +8770,7 @@
       <c r="ACP93" s="6"/>
       <c r="ACQ93" s="6"/>
       <c r="ACR93" s="12" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="ACS93" s="6"/>
       <c r="ACT93" s="6"/>
@@ -8786,10 +8798,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="48:835">
+    <row r="94" spans="48:835" x14ac:dyDescent="0.2">
       <c r="DK94" s="6"/>
       <c r="DQ94" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="DR94" s="6"/>
       <c r="DS94" s="6"/>
@@ -8798,7 +8810,7 @@
       <c r="DV94" s="6"/>
       <c r="DW94" s="6"/>
       <c r="DX94" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="DY94" s="6"/>
       <c r="DZ94" s="6"/>
@@ -8807,10 +8819,10 @@
       <c r="EC94" s="6"/>
       <c r="ED94" s="6"/>
       <c r="EE94" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="EL94" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="GR94" s="8"/>
       <c r="YR94" s="6"/>
@@ -8820,7 +8832,7 @@
       <c r="YV94" s="6"/>
       <c r="YW94" s="6"/>
       <c r="YX94" s="12" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="YY94" s="6"/>
       <c r="YZ94" s="6"/>
@@ -8870,7 +8882,7 @@
       <c r="ADE94" s="8"/>
       <c r="ADF94" s="7"/>
     </row>
-    <row r="95" spans="48:835">
+    <row r="95" spans="48:835" x14ac:dyDescent="0.2">
       <c r="BM95" s="6"/>
       <c r="DK95" s="6"/>
       <c r="DL95" s="6"/>
@@ -8922,7 +8934,7 @@
       <c r="ACI95" s="6"/>
       <c r="ACJ95" s="6"/>
       <c r="ACK95" s="12" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="ACL95" s="6"/>
       <c r="ACM95" s="6"/>
@@ -8950,11 +8962,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="48:835">
+    <row r="96" spans="48:835" x14ac:dyDescent="0.2">
       <c r="BM96" s="6"/>
       <c r="DD96" s="6"/>
       <c r="DJ96" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="DK96" s="6"/>
       <c r="DL96" s="6"/>
@@ -8963,7 +8975,7 @@
       <c r="DO96" s="6"/>
       <c r="DP96" s="6"/>
       <c r="DQ96" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="DR96" s="6"/>
       <c r="DS96" s="6"/>
@@ -8972,10 +8984,10 @@
       <c r="DV96" s="6"/>
       <c r="DW96" s="6"/>
       <c r="DX96" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="EE96" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="GR96" s="8"/>
       <c r="YK96" s="6"/>
@@ -8985,7 +8997,7 @@
       <c r="YO96" s="6"/>
       <c r="YP96" s="6"/>
       <c r="YQ96" s="12" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="YR96" s="6"/>
       <c r="YS96" s="6"/>
@@ -9035,7 +9047,7 @@
       <c r="ACX96" s="8"/>
       <c r="ACY96" s="7"/>
     </row>
-    <row r="97" spans="3:779">
+    <row r="97" spans="3:779" x14ac:dyDescent="0.2">
       <c r="DD97" s="6"/>
       <c r="DE97" s="6"/>
       <c r="DF97" s="6"/>
@@ -9086,7 +9098,7 @@
       <c r="ACB97" s="6"/>
       <c r="ACC97" s="6"/>
       <c r="ACD97" s="12" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="ACE97" s="6"/>
       <c r="ACF97" s="6"/>
@@ -9114,10 +9126,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="3:779">
+    <row r="98" spans="3:779" x14ac:dyDescent="0.2">
       <c r="CW98" s="6"/>
       <c r="DC98" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="DD98" s="6"/>
       <c r="DE98" s="6"/>
@@ -9126,7 +9138,7 @@
       <c r="DH98" s="6"/>
       <c r="DI98" s="6"/>
       <c r="DJ98" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="DK98" s="6"/>
       <c r="DL98" s="6"/>
@@ -9135,10 +9147,10 @@
       <c r="DO98" s="6"/>
       <c r="DP98" s="6"/>
       <c r="DQ98" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="DX98" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="GR98" s="8"/>
       <c r="YD98" s="6"/>
@@ -9148,7 +9160,7 @@
       <c r="YH98" s="6"/>
       <c r="YI98" s="6"/>
       <c r="YJ98" s="12" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="YK98" s="6"/>
       <c r="YL98" s="6"/>
@@ -9198,7 +9210,7 @@
       <c r="ACQ98" s="8"/>
       <c r="ACR98" s="7"/>
     </row>
-    <row r="99" spans="3:779">
+    <row r="99" spans="3:779" x14ac:dyDescent="0.2">
       <c r="CW99" s="6"/>
       <c r="CX99" s="6"/>
       <c r="CY99" s="6"/>
@@ -9249,7 +9261,7 @@
       <c r="ABU99" s="6"/>
       <c r="ABV99" s="6"/>
       <c r="ABW99" s="12" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="ABX99" s="6"/>
       <c r="ABY99" s="6"/>
@@ -9277,11 +9289,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="3:779">
+    <row r="100" spans="3:779" x14ac:dyDescent="0.2">
       <c r="BM100" s="6"/>
       <c r="CP100" s="6"/>
       <c r="CV100" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="CW100" s="6"/>
       <c r="CX100" s="6"/>
@@ -9290,7 +9302,7 @@
       <c r="DA100" s="6"/>
       <c r="DB100" s="6"/>
       <c r="DC100" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="DD100" s="6"/>
       <c r="DE100" s="6"/>
@@ -9299,10 +9311,10 @@
       <c r="DH100" s="6"/>
       <c r="DI100" s="6"/>
       <c r="DJ100" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="DQ100" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="GR100" s="8"/>
       <c r="XW100" s="6"/>
@@ -9312,7 +9324,7 @@
       <c r="YA100" s="6"/>
       <c r="YB100" s="6"/>
       <c r="YC100" s="12" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="YD100" s="6"/>
       <c r="YE100" s="6"/>
@@ -9362,7 +9374,7 @@
       <c r="ACJ100" s="8"/>
       <c r="ACK100" s="7"/>
     </row>
-    <row r="101" spans="3:779">
+    <row r="101" spans="3:779" x14ac:dyDescent="0.2">
       <c r="BM101" s="6"/>
       <c r="CP101" s="6"/>
       <c r="CQ101" s="6"/>
@@ -9414,7 +9426,7 @@
       <c r="ABN101" s="6"/>
       <c r="ABO101" s="6"/>
       <c r="ABP101" s="12" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="ABQ101" s="6"/>
       <c r="ABR101" s="6"/>
@@ -9442,13 +9454,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="3:779">
+    <row r="102" spans="3:779" x14ac:dyDescent="0.2">
       <c r="AE102" s="6"/>
       <c r="AF102" s="6"/>
       <c r="AG102" s="6"/>
       <c r="CI102" s="6"/>
       <c r="CO102" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="CP102" s="6"/>
       <c r="CQ102" s="6"/>
@@ -9457,7 +9469,7 @@
       <c r="CT102" s="6"/>
       <c r="CU102" s="6"/>
       <c r="CV102" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="CW102" s="6"/>
       <c r="CX102" s="6"/>
@@ -9466,10 +9478,10 @@
       <c r="DA102" s="6"/>
       <c r="DB102" s="6"/>
       <c r="DC102" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="DJ102" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="GR102" s="8"/>
       <c r="XP102" s="6"/>
@@ -9479,7 +9491,7 @@
       <c r="XT102" s="6"/>
       <c r="XU102" s="6"/>
       <c r="XV102" s="12" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="XW102" s="6"/>
       <c r="XX102" s="6"/>
@@ -9529,7 +9541,7 @@
       <c r="ACC102" s="8"/>
       <c r="ACD102" s="7"/>
     </row>
-    <row r="103" spans="3:779">
+    <row r="103" spans="3:779" x14ac:dyDescent="0.2">
       <c r="AE103" s="6"/>
       <c r="AF103" s="6"/>
       <c r="AG103" s="6"/>
@@ -9577,7 +9589,7 @@
       <c r="YJ103" s="7"/>
       <c r="ABD103" s="8"/>
       <c r="ABI103" s="12" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="ABJ103" s="6"/>
       <c r="ABK103" s="6"/>
@@ -9605,12 +9617,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="3:779">
+    <row r="104" spans="3:779" x14ac:dyDescent="0.2">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="12" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="X104" s="6"/>
       <c r="Y104" s="6"/>
@@ -9619,7 +9631,7 @@
       <c r="AB104" s="6"/>
       <c r="AC104" s="6"/>
       <c r="AD104" s="12" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AE104" s="6"/>
       <c r="AF104" s="6"/>
@@ -9631,15 +9643,15 @@
       <c r="AP104" s="6"/>
       <c r="AQ104" s="6"/>
       <c r="AR104" s="12" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AZ104" s="6"/>
       <c r="BF104" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="CB104" s="6"/>
       <c r="CH104" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="CI104" s="6"/>
       <c r="CJ104" s="6"/>
@@ -9648,7 +9660,7 @@
       <c r="CM104" s="6"/>
       <c r="CN104" s="6"/>
       <c r="CO104" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="CP104" s="6"/>
       <c r="CQ104" s="6"/>
@@ -9657,10 +9669,10 @@
       <c r="CT104" s="6"/>
       <c r="CU104" s="6"/>
       <c r="CV104" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="DC104" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="GR104" s="8"/>
       <c r="XI104" s="6"/>
@@ -9670,7 +9682,7 @@
       <c r="XM104" s="6"/>
       <c r="XN104" s="6"/>
       <c r="XO104" s="12" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="XP104" s="6"/>
       <c r="XQ104" s="6"/>
@@ -9716,7 +9728,7 @@
       <c r="ABV104" s="8"/>
       <c r="ABW104" s="7"/>
     </row>
-    <row r="105" spans="3:779">
+    <row r="105" spans="3:779" x14ac:dyDescent="0.2">
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
@@ -9818,12 +9830,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="3:779">
+    <row r="106" spans="3:779" x14ac:dyDescent="0.2">
       <c r="F106" s="8"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="12" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q106" s="6"/>
       <c r="R106" s="8"/>
@@ -9832,7 +9844,7 @@
       <c r="U106" s="6"/>
       <c r="V106" s="6"/>
       <c r="W106" s="12" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="X106" s="6"/>
       <c r="Y106" s="6"/>
@@ -9841,7 +9853,7 @@
       <c r="AB106" s="6"/>
       <c r="AC106" s="6"/>
       <c r="AD106" s="12" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AE106" s="6"/>
       <c r="AF106" s="8"/>
@@ -9853,7 +9865,7 @@
       <c r="AP106" s="6"/>
       <c r="AQ106" s="6"/>
       <c r="AR106" s="12" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AS106" s="6"/>
       <c r="AT106" s="6"/>
@@ -9862,7 +9874,7 @@
       <c r="AW106" s="6"/>
       <c r="AX106" s="6"/>
       <c r="AY106" s="12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AZ106" s="6"/>
       <c r="BA106" s="6"/>
@@ -9871,15 +9883,15 @@
       <c r="BD106" s="6"/>
       <c r="BE106" s="6"/>
       <c r="BF106" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="BG106" s="6"/>
       <c r="BM106" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="BU106" s="6"/>
       <c r="CA106" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="CB106" s="6"/>
       <c r="CC106" s="6"/>
@@ -9888,7 +9900,7 @@
       <c r="CF106" s="6"/>
       <c r="CG106" s="6"/>
       <c r="CH106" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="CI106" s="6"/>
       <c r="CJ106" s="6"/>
@@ -9897,10 +9909,10 @@
       <c r="CM106" s="6"/>
       <c r="CN106" s="6"/>
       <c r="CO106" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="CV106" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="GR106" s="8"/>
       <c r="XB106" s="6"/>
@@ -9910,7 +9922,7 @@
       <c r="XF106" s="6"/>
       <c r="XG106" s="6"/>
       <c r="XH106" s="12" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="XI106" s="6"/>
       <c r="XJ106" s="6"/>
@@ -9950,7 +9962,7 @@
       <c r="ABO106" s="8"/>
       <c r="ABP106" s="7"/>
     </row>
-    <row r="107" spans="3:779">
+    <row r="107" spans="3:779" x14ac:dyDescent="0.2">
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -10057,7 +10069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="3:779">
+    <row r="108" spans="3:779" x14ac:dyDescent="0.2">
       <c r="F108" s="8"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -10069,7 +10081,7 @@
       <c r="U108" s="6"/>
       <c r="V108" s="6"/>
       <c r="W108" s="12" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="X108" s="6"/>
       <c r="Y108" s="6"/>
@@ -10078,7 +10090,7 @@
       <c r="AB108" s="6"/>
       <c r="AC108" s="6"/>
       <c r="AD108" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AE108" s="6"/>
       <c r="AF108" s="8"/>
@@ -10090,7 +10102,7 @@
       <c r="AP108" s="6"/>
       <c r="AQ108" s="6"/>
       <c r="AR108" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="AS108" s="6"/>
       <c r="AT108" s="6"/>
@@ -10099,7 +10111,7 @@
       <c r="AW108" s="6"/>
       <c r="AX108" s="6"/>
       <c r="AY108" s="12" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AZ108" s="6"/>
       <c r="BA108" s="6"/>
@@ -10108,7 +10120,7 @@
       <c r="BD108" s="6"/>
       <c r="BE108" s="6"/>
       <c r="BF108" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="BG108" s="6"/>
       <c r="BH108" s="6"/>
@@ -10117,11 +10129,11 @@
       <c r="BK108" s="6"/>
       <c r="BL108" s="6"/>
       <c r="BM108" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="BN108" s="6"/>
       <c r="BT108" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="BU108" s="6"/>
       <c r="BV108" s="6"/>
@@ -10130,7 +10142,7 @@
       <c r="BY108" s="6"/>
       <c r="BZ108" s="6"/>
       <c r="CA108" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="CB108" s="6"/>
       <c r="CC108" s="6"/>
@@ -10139,10 +10151,10 @@
       <c r="CF108" s="6"/>
       <c r="CG108" s="6"/>
       <c r="CH108" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="CO108" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="GR108" s="8"/>
       <c r="WU108" s="6"/>
@@ -10152,7 +10164,7 @@
       <c r="WY108" s="6"/>
       <c r="WZ108" s="6"/>
       <c r="XA108" s="12" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="XB108" s="6"/>
       <c r="XC108" s="6"/>
@@ -10184,7 +10196,7 @@
       <c r="ABH108" s="8"/>
       <c r="ABI108" s="7"/>
     </row>
-    <row r="109" spans="3:779">
+    <row r="109" spans="3:779" x14ac:dyDescent="0.2">
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -10211,7 +10223,7 @@
       <c r="AP109" s="8"/>
       <c r="AQ109" s="8"/>
       <c r="AR109" s="7" t="s">
-        <v>238</v>
+        <v>565</v>
       </c>
       <c r="AS109" s="8"/>
       <c r="AT109" s="8"/>
@@ -10280,7 +10292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="3:779">
+    <row r="110" spans="3:779" x14ac:dyDescent="0.2">
       <c r="H110" s="6"/>
       <c r="I110" s="7" t="s">
         <v>31</v>
@@ -10292,7 +10304,7 @@
       <c r="U110" s="6"/>
       <c r="V110" s="6"/>
       <c r="W110" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="X110" s="6"/>
       <c r="Y110" s="6"/>
@@ -10301,7 +10313,7 @@
       <c r="AB110" s="6"/>
       <c r="AC110" s="6"/>
       <c r="AD110" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="AF110" s="8"/>
       <c r="AL110" s="6"/>
@@ -10311,7 +10323,7 @@
       <c r="AP110" s="6"/>
       <c r="AQ110" s="6"/>
       <c r="AR110" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AS110" s="6"/>
       <c r="AT110" s="6"/>
@@ -10320,10 +10332,10 @@
       <c r="AW110" s="6"/>
       <c r="AX110" s="6"/>
       <c r="AY110" s="7" t="s">
-        <v>235</v>
+        <v>564</v>
       </c>
       <c r="BF110" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="BG110" s="6"/>
       <c r="BH110" s="6"/>
@@ -10332,7 +10344,7 @@
       <c r="BK110" s="6"/>
       <c r="BL110" s="6"/>
       <c r="BM110" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="BN110" s="6"/>
       <c r="BO110" s="6"/>
@@ -10341,7 +10353,7 @@
       <c r="BR110" s="6"/>
       <c r="BS110" s="6"/>
       <c r="BT110" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="BU110" s="6"/>
       <c r="BV110" s="6"/>
@@ -10350,10 +10362,10 @@
       <c r="BY110" s="6"/>
       <c r="BZ110" s="6"/>
       <c r="CA110" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="CH110" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="GR110" s="8"/>
       <c r="WN110" s="6"/>
@@ -10363,7 +10375,7 @@
       <c r="WR110" s="6"/>
       <c r="WS110" s="6"/>
       <c r="WT110" s="12" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="WU110" s="6"/>
       <c r="WV110" s="6"/>
@@ -10392,7 +10404,7 @@
       </c>
       <c r="ABD110" s="8"/>
     </row>
-    <row r="111" spans="3:779">
+    <row r="111" spans="3:779" x14ac:dyDescent="0.2">
       <c r="Q111" s="6"/>
       <c r="R111" s="8"/>
       <c r="S111" s="6"/>
@@ -10453,10 +10465,10 @@
       <c r="XH111" s="7"/>
       <c r="ABD111" s="8"/>
     </row>
-    <row r="112" spans="3:779">
+    <row r="112" spans="3:779" x14ac:dyDescent="0.2">
       <c r="H112" s="6"/>
       <c r="I112" s="12" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="Q112" s="6"/>
       <c r="R112" s="8"/>
@@ -10465,7 +10477,7 @@
       <c r="U112" s="6"/>
       <c r="V112" s="6"/>
       <c r="W112" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AF112" s="8"/>
       <c r="AM112" s="8"/>
@@ -10476,10 +10488,10 @@
       <c r="AW112" s="6"/>
       <c r="AX112" s="6"/>
       <c r="AY112" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BM112" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="BN112" s="6"/>
       <c r="BO112" s="6"/>
@@ -10488,10 +10500,10 @@
       <c r="BR112" s="6"/>
       <c r="BS112" s="6"/>
       <c r="BT112" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="CA112" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="GR112" s="8"/>
       <c r="WG112" s="6"/>
@@ -10501,7 +10513,7 @@
       <c r="WK112" s="6"/>
       <c r="WL112" s="6"/>
       <c r="WM112" s="12" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="WN112" s="6"/>
       <c r="WO112" s="6"/>
@@ -10530,7 +10542,7 @@
       </c>
       <c r="ABD112" s="8"/>
     </row>
-    <row r="113" spans="3:732">
+    <row r="113" spans="3:732" x14ac:dyDescent="0.2">
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
@@ -10578,17 +10590,17 @@
       <c r="XA113" s="7"/>
       <c r="ABD113" s="8"/>
     </row>
-    <row r="114" spans="3:732">
+    <row r="114" spans="3:732" x14ac:dyDescent="0.2">
       <c r="F114" s="8"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="12" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AF114" s="8"/>
       <c r="AM114" s="8"/>
       <c r="BT114" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="DC114" s="6"/>
       <c r="GR114" s="8"/>
@@ -10599,7 +10611,7 @@
       <c r="WD114" s="6"/>
       <c r="WE114" s="6"/>
       <c r="WF114" s="12" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="WG114" s="6"/>
       <c r="WH114" s="6"/>
@@ -10628,7 +10640,7 @@
       </c>
       <c r="ABD114" s="8"/>
     </row>
-    <row r="115" spans="3:732">
+    <row r="115" spans="3:732" x14ac:dyDescent="0.2">
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -10662,7 +10674,7 @@
       <c r="WT115" s="7"/>
       <c r="ABD115" s="8"/>
     </row>
-    <row r="116" spans="3:732">
+    <row r="116" spans="3:732" x14ac:dyDescent="0.2">
       <c r="F116" s="8"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
@@ -10677,7 +10689,7 @@
       <c r="VW116" s="6"/>
       <c r="VX116" s="6"/>
       <c r="VY116" s="12" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="VZ116" s="6"/>
       <c r="WA116" s="6"/>
@@ -10706,7 +10718,7 @@
       </c>
       <c r="ABD116" s="8"/>
     </row>
-    <row r="117" spans="3:732">
+    <row r="117" spans="3:732" x14ac:dyDescent="0.2">
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
@@ -10737,7 +10749,7 @@
       <c r="WM117" s="7"/>
       <c r="ABD117" s="8"/>
     </row>
-    <row r="118" spans="3:732">
+    <row r="118" spans="3:732" x14ac:dyDescent="0.2">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
@@ -10754,7 +10766,7 @@
       <c r="VP118" s="6"/>
       <c r="VQ118" s="6"/>
       <c r="VR118" s="12" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="VS118" s="6"/>
       <c r="VT118" s="6"/>
@@ -10783,13 +10795,13 @@
       </c>
       <c r="ABD118" s="8"/>
     </row>
-    <row r="119" spans="3:732">
+    <row r="119" spans="3:732" x14ac:dyDescent="0.2">
       <c r="AF119" s="8"/>
       <c r="AH119" s="6"/>
       <c r="AI119" s="6"/>
       <c r="AJ119" s="6"/>
       <c r="AK119" s="12" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AM119" s="8"/>
       <c r="GR119" s="8"/>
@@ -10816,7 +10828,7 @@
       <c r="WF119" s="7"/>
       <c r="ABD119" s="8"/>
     </row>
-    <row r="120" spans="3:732">
+    <row r="120" spans="3:732" x14ac:dyDescent="0.2">
       <c r="AF120" s="8"/>
       <c r="AH120" s="8"/>
       <c r="AI120" s="8"/>
@@ -10832,7 +10844,7 @@
       <c r="VI120" s="6"/>
       <c r="VJ120" s="6"/>
       <c r="VK120" s="12" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="VL120" s="6"/>
       <c r="VM120" s="6"/>
@@ -10861,13 +10873,13 @@
       </c>
       <c r="ABD120" s="8"/>
     </row>
-    <row r="121" spans="3:732">
+    <row r="121" spans="3:732" x14ac:dyDescent="0.2">
       <c r="AF121" s="8"/>
       <c r="AH121" s="8"/>
       <c r="AI121" s="6"/>
       <c r="AJ121" s="6"/>
       <c r="AK121" s="12" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="GR121" s="8"/>
       <c r="VE121" s="6"/>
@@ -10893,7 +10905,7 @@
       <c r="VY121" s="7"/>
       <c r="ABD121" s="8"/>
     </row>
-    <row r="122" spans="3:732">
+    <row r="122" spans="3:732" x14ac:dyDescent="0.2">
       <c r="AF122" s="8"/>
       <c r="AG122" s="8"/>
       <c r="AH122" s="8"/>
@@ -10908,7 +10920,7 @@
       <c r="VB122" s="6"/>
       <c r="VC122" s="6"/>
       <c r="VD122" s="12" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="VE122" s="6"/>
       <c r="VF122" s="6"/>
@@ -10937,7 +10949,7 @@
       </c>
       <c r="ABD122" s="8"/>
     </row>
-    <row r="123" spans="3:732">
+    <row r="123" spans="3:732" x14ac:dyDescent="0.2">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
@@ -10947,7 +10959,7 @@
       <c r="AI123" s="6"/>
       <c r="AJ123" s="6"/>
       <c r="AK123" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="GR123" s="8"/>
       <c r="UX123" s="6"/>
@@ -10973,7 +10985,7 @@
       <c r="VR123" s="7"/>
       <c r="ABD123" s="8"/>
     </row>
-    <row r="124" spans="3:732">
+    <row r="124" spans="3:732" x14ac:dyDescent="0.2">
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
@@ -10991,7 +11003,7 @@
       <c r="TS124" s="6"/>
       <c r="TT124" s="6"/>
       <c r="TU124" s="12" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="UX124" s="6"/>
       <c r="UY124" s="6"/>
@@ -11020,7 +11032,7 @@
       </c>
       <c r="ABD124" s="8"/>
     </row>
-    <row r="125" spans="3:732">
+    <row r="125" spans="3:732" x14ac:dyDescent="0.2">
       <c r="F125" s="8"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
@@ -11034,7 +11046,7 @@
       <c r="AI125" s="6"/>
       <c r="AJ125" s="6"/>
       <c r="AK125" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="GR125" s="8"/>
       <c r="TO125" s="6"/>
@@ -11088,7 +11100,7 @@
       <c r="VK125" s="7"/>
       <c r="ABD125" s="8"/>
     </row>
-    <row r="126" spans="3:732">
+    <row r="126" spans="3:732" x14ac:dyDescent="0.2">
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -11107,7 +11119,7 @@
       <c r="TL126" s="6"/>
       <c r="TM126" s="6"/>
       <c r="TN126" s="12" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="TO126" s="6"/>
       <c r="TP126" s="6"/>
@@ -11136,7 +11148,7 @@
       </c>
       <c r="ABD126" s="8"/>
     </row>
-    <row r="127" spans="3:732">
+    <row r="127" spans="3:732" x14ac:dyDescent="0.2">
       <c r="F127" s="8"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
@@ -11168,7 +11180,7 @@
       <c r="VD127" s="7"/>
       <c r="ABD127" s="8"/>
     </row>
-    <row r="128" spans="3:732">
+    <row r="128" spans="3:732" x14ac:dyDescent="0.2">
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
@@ -11184,7 +11196,7 @@
       <c r="TE128" s="6"/>
       <c r="TF128" s="6"/>
       <c r="TG128" s="12" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="TH128" s="6"/>
       <c r="TI128" s="6"/>
@@ -11211,7 +11223,7 @@
       </c>
       <c r="ABD128" s="8"/>
     </row>
-    <row r="129" spans="3:732">
+    <row r="129" spans="3:732" x14ac:dyDescent="0.2">
       <c r="H129" s="6"/>
       <c r="I129" s="7" t="s">
         <v>31</v>
@@ -11223,7 +11235,7 @@
       <c r="N129" s="6"/>
       <c r="O129" s="6"/>
       <c r="P129" s="12" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="AF129" s="8"/>
       <c r="GR129" s="8"/>
@@ -11248,7 +11260,7 @@
       <c r="TS129" s="8"/>
       <c r="ABD129" s="8"/>
     </row>
-    <row r="130" spans="3:732">
+    <row r="130" spans="3:732" x14ac:dyDescent="0.2">
       <c r="J130" s="6"/>
       <c r="K130" s="8"/>
       <c r="L130" s="6"/>
@@ -11265,7 +11277,7 @@
       <c r="SX130" s="6"/>
       <c r="SY130" s="6"/>
       <c r="SZ130" s="12" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="TA130" s="6"/>
       <c r="TB130" s="6"/>
@@ -11290,7 +11302,7 @@
       <c r="TS130" s="8"/>
       <c r="ABD130" s="8"/>
     </row>
-    <row r="131" spans="3:732">
+    <row r="131" spans="3:732" x14ac:dyDescent="0.2">
       <c r="H131" s="6"/>
       <c r="I131" s="12"/>
       <c r="J131" s="6"/>
@@ -11333,11 +11345,11 @@
       <c r="AAZ131" s="6"/>
       <c r="ABA131" s="6"/>
       <c r="ABB131" s="12" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="ABD131" s="8"/>
     </row>
-    <row r="132" spans="3:732">
+    <row r="132" spans="3:732" x14ac:dyDescent="0.2">
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
@@ -11357,7 +11369,7 @@
       <c r="SQ132" s="6"/>
       <c r="SR132" s="6"/>
       <c r="SS132" s="12" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="ST132" s="6"/>
       <c r="SU132" s="6"/>
@@ -11395,7 +11407,7 @@
       <c r="ABC132" s="8"/>
       <c r="ABD132" s="8"/>
     </row>
-    <row r="133" spans="3:732">
+    <row r="133" spans="3:732" x14ac:dyDescent="0.2">
       <c r="F133" s="8"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
@@ -11408,7 +11420,7 @@
       <c r="N133" s="6"/>
       <c r="O133" s="6"/>
       <c r="P133" s="7" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="AF133" s="8"/>
       <c r="GR133" s="8"/>
@@ -11441,7 +11453,7 @@
       <c r="AAS133" s="6"/>
       <c r="AAT133" s="6"/>
       <c r="AAU133" s="12" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="AAV133" s="6"/>
       <c r="AAW133" s="6"/>
@@ -11453,7 +11465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="3:732">
+    <row r="134" spans="3:732" x14ac:dyDescent="0.2">
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -11478,7 +11490,7 @@
       <c r="SJ134" s="6"/>
       <c r="SK134" s="6"/>
       <c r="SL134" s="12" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="SM134" s="6"/>
       <c r="SN134" s="6"/>
@@ -11521,7 +11533,7 @@
       <c r="ABA134" s="6"/>
       <c r="ABB134" s="6"/>
     </row>
-    <row r="135" spans="3:732">
+    <row r="135" spans="3:732" x14ac:dyDescent="0.2">
       <c r="F135" s="8"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
@@ -11532,7 +11544,7 @@
       <c r="N135" s="6"/>
       <c r="O135" s="6"/>
       <c r="P135" s="7" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="Q135" s="6"/>
       <c r="R135" s="8"/>
@@ -11567,7 +11579,7 @@
       <c r="AAL135" s="6"/>
       <c r="AAM135" s="6"/>
       <c r="AAN135" s="12" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="AAO135" s="6"/>
       <c r="AAP135" s="6"/>
@@ -11586,7 +11598,7 @@
       <c r="ABA135" s="6"/>
       <c r="ABB135" s="7"/>
     </row>
-    <row r="136" spans="3:732">
+    <row r="136" spans="3:732" x14ac:dyDescent="0.2">
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
@@ -11604,7 +11616,7 @@
       <c r="SC136" s="6"/>
       <c r="SD136" s="6"/>
       <c r="SE136" s="12" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="SF136" s="6"/>
       <c r="SG136" s="6"/>
@@ -11654,7 +11666,7 @@
       <c r="ABA136" s="8"/>
       <c r="ABB136" s="7"/>
     </row>
-    <row r="137" spans="3:732">
+    <row r="137" spans="3:732" x14ac:dyDescent="0.2">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
@@ -11668,7 +11680,7 @@
       <c r="U137" s="6"/>
       <c r="V137" s="6"/>
       <c r="W137" s="12" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="AF137" s="8"/>
       <c r="GR137" s="8"/>
@@ -11701,7 +11713,7 @@
       <c r="AAE137" s="6"/>
       <c r="AAF137" s="6"/>
       <c r="AAG137" s="12" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="AAH137" s="6"/>
       <c r="AAI137" s="6"/>
@@ -11729,7 +11741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="3:732">
+    <row r="138" spans="3:732" x14ac:dyDescent="0.2">
       <c r="R138" s="8"/>
       <c r="S138" s="6"/>
       <c r="T138" s="8"/>
@@ -11745,7 +11757,7 @@
       <c r="RV138" s="6"/>
       <c r="RW138" s="6"/>
       <c r="RX138" s="12" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="RY138" s="6"/>
       <c r="RZ138" s="6"/>
@@ -11795,7 +11807,7 @@
       <c r="AAT138" s="8"/>
       <c r="AAU138" s="7"/>
     </row>
-    <row r="139" spans="3:732">
+    <row r="139" spans="3:732" x14ac:dyDescent="0.2">
       <c r="R139" s="8"/>
       <c r="S139" s="6"/>
       <c r="T139" s="8"/>
@@ -11811,7 +11823,7 @@
       <c r="AB139" s="6"/>
       <c r="AC139" s="6"/>
       <c r="AD139" s="12" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="AE139" s="6"/>
       <c r="AF139" s="8"/>
@@ -11845,7 +11857,7 @@
       <c r="ZX139" s="6"/>
       <c r="ZY139" s="6"/>
       <c r="ZZ139" s="12" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="AAA139" s="6"/>
       <c r="AAB139" s="6"/>
@@ -11873,7 +11885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="3:732">
+    <row r="140" spans="3:732" x14ac:dyDescent="0.2">
       <c r="R140" s="8"/>
       <c r="S140" s="8"/>
       <c r="T140" s="8"/>
@@ -11892,7 +11904,7 @@
       <c r="FE140" s="6"/>
       <c r="FF140" s="6"/>
       <c r="FG140" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="GR140" s="8"/>
       <c r="RK140" s="6"/>
@@ -11902,7 +11914,7 @@
       <c r="RO140" s="6"/>
       <c r="RP140" s="6"/>
       <c r="RQ140" s="12" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="RR140" s="6"/>
       <c r="RS140" s="6"/>
@@ -11952,14 +11964,14 @@
       <c r="AAM140" s="8"/>
       <c r="AAN140" s="7"/>
     </row>
-    <row r="141" spans="3:732">
+    <row r="141" spans="3:732" x14ac:dyDescent="0.2">
       <c r="R141" s="8"/>
       <c r="S141" s="6"/>
       <c r="T141" s="8"/>
       <c r="U141" s="6"/>
       <c r="V141" s="6"/>
       <c r="W141" s="7" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="X141" s="6"/>
       <c r="Y141" s="6"/>
@@ -12006,7 +12018,7 @@
       <c r="ZQ141" s="6"/>
       <c r="ZR141" s="6"/>
       <c r="ZS141" s="12" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="ZT141" s="6"/>
       <c r="ZU141" s="6"/>
@@ -12034,7 +12046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="3:732">
+    <row r="142" spans="3:732" x14ac:dyDescent="0.2">
       <c r="R142" s="8"/>
       <c r="S142" s="6"/>
       <c r="T142" s="8"/>
@@ -12054,25 +12066,25 @@
       <c r="EX142" s="6"/>
       <c r="EY142" s="6"/>
       <c r="EZ142" s="12" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="FD142" s="8"/>
       <c r="FE142" s="6"/>
       <c r="FF142" s="6"/>
       <c r="FG142" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="FK142" s="6"/>
       <c r="FL142" s="6"/>
       <c r="FM142" s="6"/>
       <c r="FN142" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="FY142" s="6"/>
       <c r="FZ142" s="6"/>
       <c r="GA142" s="6"/>
       <c r="GB142" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="GM142" s="8"/>
       <c r="GN142" s="8"/>
@@ -12087,7 +12099,7 @@
       <c r="RH142" s="6"/>
       <c r="RI142" s="6"/>
       <c r="RJ142" s="12" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="RK142" s="6"/>
       <c r="RL142" s="6"/>
@@ -12137,7 +12149,7 @@
       <c r="AAF142" s="8"/>
       <c r="AAG142" s="7"/>
     </row>
-    <row r="143" spans="3:732">
+    <row r="143" spans="3:732" x14ac:dyDescent="0.2">
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
       <c r="R143" s="8"/>
@@ -12146,7 +12158,7 @@
       <c r="U143" s="6"/>
       <c r="V143" s="6"/>
       <c r="W143" s="7" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="X143" s="6"/>
       <c r="Y143" s="6"/>
@@ -12155,7 +12167,7 @@
       <c r="AB143" s="6"/>
       <c r="AC143" s="6"/>
       <c r="AD143" s="7" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="AE143" s="6"/>
       <c r="AF143" s="8"/>
@@ -12208,7 +12220,7 @@
       <c r="ZJ143" s="6"/>
       <c r="ZK143" s="6"/>
       <c r="ZL143" s="12" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="ZM143" s="6"/>
       <c r="ZN143" s="6"/>
@@ -12236,7 +12248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="3:732">
+    <row r="144" spans="3:732" x14ac:dyDescent="0.2">
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
       <c r="R144" s="8"/>
@@ -12247,7 +12259,7 @@
       <c r="AB144" s="8"/>
       <c r="AC144" s="8"/>
       <c r="AD144" s="7" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="AE144" s="8"/>
       <c r="AF144" s="8"/>
@@ -12255,50 +12267,50 @@
       <c r="DA144" s="6"/>
       <c r="DB144" s="6"/>
       <c r="DC144" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="EP144" s="6"/>
       <c r="EQ144" s="6"/>
       <c r="ER144" s="6"/>
       <c r="ES144" s="12" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="EW144" s="8"/>
       <c r="EX144" s="6"/>
       <c r="EY144" s="6"/>
       <c r="EZ144" s="12" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="FB144" s="8"/>
       <c r="FD144" s="8"/>
       <c r="FE144" s="6"/>
       <c r="FF144" s="6"/>
       <c r="FG144" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="FK144" s="8"/>
       <c r="FL144" s="6"/>
       <c r="FM144" s="6"/>
       <c r="FN144" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="FR144" s="6"/>
       <c r="FS144" s="6"/>
       <c r="FT144" s="6"/>
       <c r="FU144" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="FY144" s="8"/>
       <c r="FZ144" s="6"/>
       <c r="GA144" s="6"/>
       <c r="GB144" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="GM144" s="8"/>
       <c r="GN144" s="6"/>
       <c r="GO144" s="6"/>
       <c r="GP144" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="QW144" s="6"/>
       <c r="QX144" s="6"/>
@@ -12307,7 +12319,7 @@
       <c r="RA144" s="6"/>
       <c r="RB144" s="6"/>
       <c r="RC144" s="12" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="RD144" s="6"/>
       <c r="RE144" s="6"/>
@@ -12357,7 +12369,7 @@
       <c r="ZY144" s="8"/>
       <c r="ZZ144" s="7"/>
     </row>
-    <row r="145" spans="3:702">
+    <row r="145" spans="3:702" x14ac:dyDescent="0.2">
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
@@ -12372,7 +12384,7 @@
       <c r="AB145" s="6"/>
       <c r="AC145" s="6"/>
       <c r="AD145" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="CZ145" s="8"/>
       <c r="DA145" s="8"/>
@@ -12416,7 +12428,7 @@
       <c r="GN145" s="8"/>
       <c r="GO145" s="8"/>
       <c r="GP145" s="2" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="QW145" s="6"/>
       <c r="QX145" s="6"/>
@@ -12447,7 +12459,7 @@
       <c r="ZC145" s="6"/>
       <c r="ZD145" s="6"/>
       <c r="ZE145" s="12" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="ZF145" s="6"/>
       <c r="ZG145" s="6"/>
@@ -12475,7 +12487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="3:702">
+    <row r="146" spans="3:702" x14ac:dyDescent="0.2">
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
@@ -12487,56 +12499,56 @@
       <c r="CT146" s="6"/>
       <c r="CU146" s="6"/>
       <c r="CV146" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="CZ146" s="8"/>
       <c r="DA146" s="6"/>
       <c r="DB146" s="6"/>
       <c r="DC146" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="DG146" s="6"/>
       <c r="DH146" s="6"/>
       <c r="DI146" s="6"/>
       <c r="DJ146" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="DU146" s="6"/>
       <c r="DV146" s="6"/>
       <c r="DW146" s="6"/>
       <c r="DX146" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="EI146" s="6"/>
       <c r="EJ146" s="6"/>
       <c r="EK146" s="6"/>
       <c r="EL146" s="12" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="EP146" s="8"/>
       <c r="EQ146" s="6"/>
       <c r="ER146" s="6"/>
       <c r="ES146" s="12" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="EW146" s="8"/>
       <c r="EX146" s="6"/>
       <c r="EY146" s="6"/>
       <c r="EZ146" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="FB146" s="8"/>
       <c r="FD146" s="6"/>
       <c r="FE146" s="6"/>
       <c r="FF146" s="6"/>
       <c r="FG146" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="FK146" s="8"/>
       <c r="FL146" s="6"/>
       <c r="FM146" s="6"/>
       <c r="FN146" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="FR146" s="8"/>
       <c r="FS146" s="6"/>
@@ -12548,13 +12560,13 @@
       <c r="FZ146" s="6"/>
       <c r="GA146" s="6"/>
       <c r="GB146" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="GM146" s="8"/>
       <c r="GN146" s="6"/>
       <c r="GO146" s="6"/>
       <c r="GP146" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="GW146" s="6"/>
       <c r="QP146" s="6"/>
@@ -12564,7 +12576,7 @@
       <c r="QT146" s="6"/>
       <c r="QU146" s="6"/>
       <c r="QV146" s="12" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="QW146" s="6"/>
       <c r="QX146" s="6"/>
@@ -12614,7 +12626,7 @@
       <c r="ZR146" s="8"/>
       <c r="ZS146" s="7"/>
     </row>
-    <row r="147" spans="3:702">
+    <row r="147" spans="3:702" x14ac:dyDescent="0.2">
       <c r="F147" s="8"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
@@ -12658,7 +12670,7 @@
       <c r="EX147" s="8"/>
       <c r="EY147" s="8"/>
       <c r="EZ147" s="7" t="s">
-        <v>280</v>
+        <v>567</v>
       </c>
       <c r="FB147" s="8"/>
       <c r="FK147" s="8"/>
@@ -12720,7 +12732,7 @@
       <c r="YV147" s="6"/>
       <c r="YW147" s="6"/>
       <c r="YX147" s="12" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="YY147" s="6"/>
       <c r="YZ147" s="6"/>
@@ -12748,7 +12760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="3:702">
+    <row r="148" spans="3:702" x14ac:dyDescent="0.2">
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -12763,86 +12775,86 @@
       <c r="CM148" s="6"/>
       <c r="CN148" s="6"/>
       <c r="CO148" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="CS148" s="8"/>
       <c r="CT148" s="6"/>
       <c r="CU148" s="6"/>
       <c r="CV148" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="CZ148" s="8"/>
       <c r="DA148" s="6"/>
       <c r="DB148" s="6"/>
       <c r="DC148" s="3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="DG148" s="8"/>
       <c r="DH148" s="6"/>
       <c r="DI148" s="6"/>
       <c r="DJ148" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="DN148" s="6"/>
       <c r="DO148" s="6"/>
       <c r="DP148" s="6"/>
       <c r="DQ148" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="DU148" s="8"/>
       <c r="DV148" s="6"/>
       <c r="DW148" s="6"/>
       <c r="DX148" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="EB148" s="6"/>
       <c r="EC148" s="6"/>
       <c r="ED148" s="6"/>
       <c r="EE148" s="12" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="EI148" s="8"/>
       <c r="EJ148" s="6"/>
       <c r="EK148" s="6"/>
       <c r="EL148" s="12" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="EP148" s="8"/>
       <c r="EQ148" s="6"/>
       <c r="ER148" s="6"/>
       <c r="ES148" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="EW148" s="6"/>
       <c r="EX148" s="6"/>
       <c r="EY148" s="6"/>
       <c r="EZ148" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="FB148" s="8"/>
       <c r="FK148" s="6"/>
       <c r="FL148" s="6"/>
       <c r="FM148" s="6"/>
       <c r="FN148" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="FR148" s="8"/>
       <c r="FS148" s="6"/>
       <c r="FT148" s="6"/>
       <c r="FU148" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="FY148" s="6"/>
       <c r="FZ148" s="6"/>
       <c r="GA148" s="6"/>
       <c r="GB148" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="GM148" s="8"/>
       <c r="GN148" s="6"/>
       <c r="GO148" s="6"/>
       <c r="GP148" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="GW148" s="6"/>
       <c r="QI148" s="6"/>
@@ -12852,7 +12864,7 @@
       <c r="QM148" s="6"/>
       <c r="QN148" s="6"/>
       <c r="QO148" s="12" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="QP148" s="6"/>
       <c r="QQ148" s="6"/>
@@ -12902,7 +12914,7 @@
       <c r="ZK148" s="8"/>
       <c r="ZL148" s="7"/>
     </row>
-    <row r="149" spans="3:702">
+    <row r="149" spans="3:702" x14ac:dyDescent="0.2">
       <c r="F149" s="8"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
@@ -12914,7 +12926,7 @@
       <c r="N149" s="6"/>
       <c r="O149" s="6"/>
       <c r="P149" s="12" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="R149" s="8"/>
       <c r="CL149" s="8"/>
@@ -12943,7 +12955,7 @@
       <c r="DO149" s="8"/>
       <c r="DP149" s="8"/>
       <c r="DQ149" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="DR149" s="8"/>
       <c r="DS149" s="8"/>
@@ -13006,7 +13018,7 @@
       <c r="YO149" s="6"/>
       <c r="YP149" s="6"/>
       <c r="YQ149" s="12" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="YR149" s="6"/>
       <c r="YS149" s="6"/>
@@ -13034,7 +13046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="3:702">
+    <row r="150" spans="3:702" x14ac:dyDescent="0.2">
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
@@ -13050,74 +13062,74 @@
       <c r="CF150" s="6"/>
       <c r="CG150" s="6"/>
       <c r="CH150" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="CL150" s="8"/>
       <c r="CM150" s="6"/>
       <c r="CN150" s="6"/>
       <c r="CO150" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="CS150" s="8"/>
       <c r="CT150" s="6"/>
       <c r="CU150" s="6"/>
       <c r="CV150" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="CZ150" s="6"/>
       <c r="DA150" s="6"/>
       <c r="DB150" s="6"/>
       <c r="DC150" s="3" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="DG150" s="8"/>
       <c r="DH150" s="6"/>
       <c r="DI150" s="6"/>
       <c r="DJ150" s="3" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="DN150" s="8"/>
       <c r="DO150" s="6"/>
       <c r="DP150" s="6"/>
       <c r="DQ150" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="DU150" s="8"/>
       <c r="DV150" s="6"/>
       <c r="DW150" s="6"/>
       <c r="DX150" s="3" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="EB150" s="8"/>
       <c r="EC150" s="6"/>
       <c r="ED150" s="6"/>
       <c r="EE150" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="EI150" s="8"/>
       <c r="EJ150" s="6"/>
       <c r="EK150" s="6"/>
       <c r="EL150" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="EP150" s="6"/>
       <c r="EQ150" s="6"/>
       <c r="ER150" s="6"/>
       <c r="ES150" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="FB150" s="8"/>
       <c r="FR150" s="6"/>
       <c r="FS150" s="6"/>
       <c r="FT150" s="6"/>
       <c r="FU150" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="GM150" s="6"/>
       <c r="GN150" s="6"/>
       <c r="GO150" s="6"/>
       <c r="GP150" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="GW150" s="6"/>
       <c r="QB150" s="6"/>
@@ -13127,7 +13139,7 @@
       <c r="QF150" s="6"/>
       <c r="QG150" s="6"/>
       <c r="QH150" s="12" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="QI150" s="6"/>
       <c r="QJ150" s="6"/>
@@ -13177,7 +13189,7 @@
       <c r="ZD150" s="8"/>
       <c r="ZE150" s="7"/>
     </row>
-    <row r="151" spans="3:702">
+    <row r="151" spans="3:702" x14ac:dyDescent="0.2">
       <c r="H151" s="6"/>
       <c r="I151" s="7" t="s">
         <v>31</v>
@@ -13188,7 +13200,7 @@
       <c r="N151" s="6"/>
       <c r="O151" s="6"/>
       <c r="P151" s="12" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="R151" s="8"/>
       <c r="BT151" s="6"/>
@@ -13222,7 +13234,7 @@
       <c r="DV151" s="8"/>
       <c r="DW151" s="8"/>
       <c r="DX151" s="3" t="s">
-        <v>296</v>
+        <v>566</v>
       </c>
       <c r="DY151" s="8"/>
       <c r="DZ151" s="8"/>
@@ -13235,7 +13247,7 @@
       <c r="EJ151" s="8"/>
       <c r="EK151" s="8"/>
       <c r="EL151" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="FB151" s="8"/>
       <c r="QB151" s="6"/>
@@ -13267,7 +13279,7 @@
       <c r="YH151" s="6"/>
       <c r="YI151" s="6"/>
       <c r="YJ151" s="12" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="YK151" s="6"/>
       <c r="YL151" s="6"/>
@@ -13295,7 +13307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="3:702">
+    <row r="152" spans="3:702" x14ac:dyDescent="0.2">
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
@@ -13307,62 +13319,62 @@
       <c r="BK152" s="6"/>
       <c r="BL152" s="6"/>
       <c r="BM152" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="BT152" s="6"/>
       <c r="BX152" s="6"/>
       <c r="BY152" s="6"/>
       <c r="BZ152" s="6"/>
       <c r="CA152" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="CE152" s="8"/>
       <c r="CF152" s="6"/>
       <c r="CG152" s="6"/>
       <c r="CH152" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="CL152" s="8"/>
       <c r="CM152" s="6"/>
       <c r="CN152" s="6"/>
       <c r="CO152" s="3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="CS152" s="6"/>
       <c r="CT152" s="6"/>
       <c r="CU152" s="6"/>
       <c r="CV152" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="DG152" s="6"/>
       <c r="DH152" s="6"/>
       <c r="DI152" s="6"/>
       <c r="DJ152" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="DN152" s="8"/>
       <c r="DO152" s="6"/>
       <c r="DP152" s="6"/>
       <c r="DQ152" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="DU152" s="6"/>
       <c r="DV152" s="6"/>
       <c r="DW152" s="6"/>
       <c r="DX152" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="EB152" s="8"/>
       <c r="EC152" s="6"/>
       <c r="ED152" s="6"/>
       <c r="EE152" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="EI152" s="6"/>
       <c r="EJ152" s="6"/>
       <c r="EK152" s="6"/>
       <c r="EL152" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="FB152" s="8"/>
       <c r="PU152" s="6"/>
@@ -13372,7 +13384,7 @@
       <c r="PY152" s="6"/>
       <c r="PZ152" s="6"/>
       <c r="QA152" s="12" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="QB152" s="6"/>
       <c r="QC152" s="6"/>
@@ -13422,7 +13434,7 @@
       <c r="YW152" s="8"/>
       <c r="YX152" s="7"/>
     </row>
-    <row r="153" spans="3:702">
+    <row r="153" spans="3:702" x14ac:dyDescent="0.2">
       <c r="H153" s="6"/>
       <c r="I153" s="12"/>
       <c r="K153" s="8"/>
@@ -13431,7 +13443,7 @@
       <c r="N153" s="6"/>
       <c r="O153" s="6"/>
       <c r="P153" s="7" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="R153" s="8"/>
       <c r="BJ153" s="8"/>
@@ -13492,7 +13504,7 @@
       <c r="YA153" s="6"/>
       <c r="YB153" s="6"/>
       <c r="YC153" s="12" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="YD153" s="6"/>
       <c r="YE153" s="6"/>
@@ -13520,7 +13532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="3:702">
+    <row r="154" spans="3:702" x14ac:dyDescent="0.2">
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
@@ -13537,49 +13549,49 @@
       <c r="BD154" s="6"/>
       <c r="BE154" s="6"/>
       <c r="BF154" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="BJ154" s="8"/>
       <c r="BK154" s="6"/>
       <c r="BL154" s="6"/>
       <c r="BM154" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="BQ154" s="6"/>
       <c r="BR154" s="6"/>
       <c r="BS154" s="6"/>
       <c r="BT154" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="BX154" s="8"/>
       <c r="BY154" s="6"/>
       <c r="BZ154" s="6"/>
       <c r="CA154" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="CE154" s="8"/>
       <c r="CF154" s="6"/>
       <c r="CG154" s="6"/>
       <c r="CH154" s="3" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="CL154" s="6"/>
       <c r="CM154" s="6"/>
       <c r="CN154" s="6"/>
       <c r="CO154" s="3" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="DN154" s="6"/>
       <c r="DO154" s="6"/>
       <c r="DP154" s="6"/>
       <c r="DQ154" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="EB154" s="6"/>
       <c r="EC154" s="6"/>
       <c r="ED154" s="6"/>
       <c r="EE154" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="FB154" s="8"/>
       <c r="PN154" s="6"/>
@@ -13589,7 +13601,7 @@
       <c r="PR154" s="6"/>
       <c r="PS154" s="6"/>
       <c r="PT154" s="12" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="PU154" s="6"/>
       <c r="PV154" s="6"/>
@@ -13639,7 +13651,7 @@
       <c r="YP154" s="8"/>
       <c r="YQ154" s="7"/>
     </row>
-    <row r="155" spans="3:702">
+    <row r="155" spans="3:702" x14ac:dyDescent="0.2">
       <c r="F155" s="8"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
@@ -13652,7 +13664,7 @@
       <c r="N155" s="6"/>
       <c r="O155" s="6"/>
       <c r="P155" s="7" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="BC155" s="8"/>
       <c r="BD155" s="8"/>
@@ -13710,7 +13722,7 @@
       <c r="XT155" s="6"/>
       <c r="XU155" s="6"/>
       <c r="XV155" s="12" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="XW155" s="6"/>
       <c r="XX155" s="6"/>
@@ -13738,7 +13750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="3:702">
+    <row r="156" spans="3:702" x14ac:dyDescent="0.2">
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
@@ -13751,43 +13763,43 @@
       <c r="AI156" s="6"/>
       <c r="AJ156" s="6"/>
       <c r="AK156" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="AV156" s="6"/>
       <c r="AW156" s="6"/>
       <c r="AX156" s="6"/>
       <c r="AY156" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="BC156" s="8"/>
       <c r="BD156" s="6"/>
       <c r="BE156" s="6"/>
       <c r="BF156" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="BJ156" s="8"/>
       <c r="BK156" s="6"/>
       <c r="BL156" s="6"/>
       <c r="BM156" s="3" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="BQ156" s="8"/>
       <c r="BR156" s="6"/>
       <c r="BS156" s="6"/>
       <c r="BT156" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="BX156" s="8"/>
       <c r="BY156" s="6"/>
       <c r="BZ156" s="6"/>
       <c r="CA156" s="3" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="CE156" s="6"/>
       <c r="CF156" s="6"/>
       <c r="CG156" s="6"/>
       <c r="CH156" s="3" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="FB156" s="8"/>
       <c r="PG156" s="6"/>
@@ -13797,7 +13809,7 @@
       <c r="PK156" s="6"/>
       <c r="PL156" s="6"/>
       <c r="PM156" s="12" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="PN156" s="6"/>
       <c r="PO156" s="6"/>
@@ -13847,7 +13859,7 @@
       <c r="YI156" s="8"/>
       <c r="YJ156" s="7"/>
     </row>
-    <row r="157" spans="3:702">
+    <row r="157" spans="3:702" x14ac:dyDescent="0.2">
       <c r="F157" s="8"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
@@ -13913,7 +13925,7 @@
       <c r="XM157" s="6"/>
       <c r="XN157" s="6"/>
       <c r="XO157" s="12" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="XP157" s="6"/>
       <c r="XQ157" s="6"/>
@@ -13941,7 +13953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="3:702">
+    <row r="158" spans="3:702" x14ac:dyDescent="0.2">
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
@@ -13952,43 +13964,43 @@
       <c r="AI158" s="6"/>
       <c r="AJ158" s="6"/>
       <c r="AK158" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="AO158" s="6"/>
       <c r="AP158" s="6"/>
       <c r="AQ158" s="6"/>
       <c r="AR158" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="AV158" s="8"/>
       <c r="AW158" s="6"/>
       <c r="AX158" s="6"/>
       <c r="AY158" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="BC158" s="8"/>
       <c r="BD158" s="6"/>
       <c r="BE158" s="6"/>
       <c r="BF158" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="BJ158" s="6"/>
       <c r="BK158" s="6"/>
       <c r="BL158" s="6"/>
       <c r="BM158" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="BQ158" s="8"/>
       <c r="BR158" s="6"/>
       <c r="BS158" s="6"/>
       <c r="BT158" s="3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="BX158" s="6"/>
       <c r="BY158" s="6"/>
       <c r="BZ158" s="6"/>
       <c r="CA158" s="3" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="FB158" s="8"/>
       <c r="OZ158" s="6"/>
@@ -13998,7 +14010,7 @@
       <c r="PD158" s="6"/>
       <c r="PE158" s="6"/>
       <c r="PF158" s="12" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="PG158" s="6"/>
       <c r="PH158" s="6"/>
@@ -14048,7 +14060,7 @@
       <c r="YB158" s="8"/>
       <c r="YC158" s="7"/>
     </row>
-    <row r="159" spans="3:702">
+    <row r="159" spans="3:702" x14ac:dyDescent="0.2">
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
@@ -14110,7 +14122,7 @@
       <c r="XF159" s="6"/>
       <c r="XG159" s="6"/>
       <c r="XH159" s="12" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="XI159" s="6"/>
       <c r="XJ159" s="6"/>
@@ -14138,43 +14150,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="3:702">
+    <row r="160" spans="3:702" x14ac:dyDescent="0.2">
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
       <c r="V160" s="6"/>
       <c r="W160" s="12" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="AF160" s="8"/>
       <c r="AH160" s="8"/>
       <c r="AI160" s="6"/>
       <c r="AJ160" s="6"/>
       <c r="AK160" s="3" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="AO160" s="8"/>
       <c r="AP160" s="6"/>
       <c r="AQ160" s="6"/>
       <c r="AR160" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="AV160" s="8"/>
       <c r="AW160" s="6"/>
       <c r="AX160" s="6"/>
       <c r="AY160" s="3" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="BC160" s="6"/>
       <c r="BD160" s="6"/>
       <c r="BE160" s="6"/>
       <c r="BF160" s="3" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="BQ160" s="6"/>
       <c r="BR160" s="6"/>
       <c r="BS160" s="6"/>
       <c r="BT160" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="FB160" s="8"/>
       <c r="OS160" s="6"/>
@@ -14184,7 +14196,7 @@
       <c r="OW160" s="6"/>
       <c r="OX160" s="6"/>
       <c r="OY160" s="12" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="OZ160" s="6"/>
       <c r="PA160" s="6"/>
@@ -14234,7 +14246,7 @@
       <c r="XU160" s="8"/>
       <c r="XV160" s="7"/>
     </row>
-    <row r="161" spans="3:646">
+    <row r="161" spans="3:646" x14ac:dyDescent="0.2">
       <c r="T161" s="8"/>
       <c r="U161" s="8"/>
       <c r="V161" s="8"/>
@@ -14288,7 +14300,7 @@
       <c r="WY161" s="6"/>
       <c r="WZ161" s="6"/>
       <c r="XA161" s="12" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="XB161" s="6"/>
       <c r="XC161" s="6"/>
@@ -14316,7 +14328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="3:646">
+    <row r="162" spans="3:646" x14ac:dyDescent="0.2">
       <c r="T162" s="8"/>
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
@@ -14329,19 +14341,19 @@
       <c r="AI162" s="6"/>
       <c r="AJ162" s="6"/>
       <c r="AK162" s="3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AO162" s="8"/>
       <c r="AP162" s="6"/>
       <c r="AQ162" s="6"/>
       <c r="AR162" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AV162" s="6"/>
       <c r="AW162" s="6"/>
       <c r="AX162" s="6"/>
       <c r="AY162" s="3" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="FB162" s="8"/>
       <c r="OL162" s="6"/>
@@ -14351,7 +14363,7 @@
       <c r="OP162" s="6"/>
       <c r="OQ162" s="6"/>
       <c r="OR162" s="12" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="OS162" s="6"/>
       <c r="OT162" s="6"/>
@@ -14401,7 +14413,7 @@
       <c r="XN162" s="8"/>
       <c r="XO162" s="7"/>
     </row>
-    <row r="163" spans="3:646">
+    <row r="163" spans="3:646" x14ac:dyDescent="0.2">
       <c r="Q163" s="8"/>
       <c r="R163" s="8"/>
       <c r="S163" s="8"/>
@@ -14445,7 +14457,7 @@
       <c r="WR163" s="6"/>
       <c r="WS163" s="6"/>
       <c r="WT163" s="12" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="WU163" s="6"/>
       <c r="WV163" s="6"/>
@@ -14473,7 +14485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="3:646">
+    <row r="164" spans="3:646" x14ac:dyDescent="0.2">
       <c r="T164" s="8"/>
       <c r="U164" s="6"/>
       <c r="V164" s="6"/>
@@ -14484,7 +14496,7 @@
       <c r="AP164" s="6"/>
       <c r="AQ164" s="6"/>
       <c r="AR164" s="3" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="BM164" s="6"/>
       <c r="FB164" s="8"/>
@@ -14495,7 +14507,7 @@
       <c r="OI164" s="6"/>
       <c r="OJ164" s="6"/>
       <c r="OK164" s="12" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="OL164" s="6"/>
       <c r="OM164" s="6"/>
@@ -14545,7 +14557,7 @@
       <c r="XG164" s="8"/>
       <c r="XH164" s="7"/>
     </row>
-    <row r="165" spans="3:646">
+    <row r="165" spans="3:646" x14ac:dyDescent="0.2">
       <c r="T165" s="8"/>
       <c r="U165" s="8"/>
       <c r="V165" s="8"/>
@@ -14582,7 +14594,7 @@
       <c r="WK165" s="6"/>
       <c r="WL165" s="6"/>
       <c r="WM165" s="12" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="WN165" s="6"/>
       <c r="WO165" s="6"/>
@@ -14610,7 +14622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="3:646">
+    <row r="166" spans="3:646" x14ac:dyDescent="0.2">
       <c r="V166" s="6"/>
       <c r="W166" s="7" t="s">
         <v>31</v>
@@ -14620,7 +14632,7 @@
       <c r="AB166" s="6"/>
       <c r="AC166" s="6"/>
       <c r="AD166" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AF166" s="8"/>
       <c r="FB166" s="8"/>
@@ -14631,7 +14643,7 @@
       <c r="OB166" s="6"/>
       <c r="OC166" s="6"/>
       <c r="OD166" s="12" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="OE166" s="6"/>
       <c r="OF166" s="6"/>
@@ -14681,7 +14693,7 @@
       <c r="WZ166" s="8"/>
       <c r="XA166" s="7"/>
     </row>
-    <row r="167" spans="3:646">
+    <row r="167" spans="3:646" x14ac:dyDescent="0.2">
       <c r="V167" s="6"/>
       <c r="Y167" s="8"/>
       <c r="AA167" s="8"/>
@@ -14720,7 +14732,7 @@
       <c r="WD167" s="6"/>
       <c r="WE167" s="6"/>
       <c r="WF167" s="12" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="WG167" s="6"/>
       <c r="WH167" s="6"/>
@@ -14748,13 +14760,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="3:646">
+    <row r="168" spans="3:646" x14ac:dyDescent="0.2">
       <c r="Y168" s="8"/>
       <c r="AA168" s="8"/>
       <c r="AB168" s="6"/>
       <c r="AC168" s="6"/>
       <c r="AD168" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="FB168" s="8"/>
       <c r="NQ168" s="6"/>
@@ -14764,7 +14776,7 @@
       <c r="NU168" s="6"/>
       <c r="NV168" s="6"/>
       <c r="NW168" s="12" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="NX168" s="6"/>
       <c r="NY168" s="6"/>
@@ -14814,7 +14826,7 @@
       <c r="WS168" s="8"/>
       <c r="WT168" s="7"/>
     </row>
-    <row r="169" spans="3:646">
+    <row r="169" spans="3:646" x14ac:dyDescent="0.2">
       <c r="Y169" s="8"/>
       <c r="Z169" s="8"/>
       <c r="AA169" s="8"/>
@@ -14829,7 +14841,7 @@
       <c r="NU169" s="8"/>
       <c r="NV169" s="8"/>
       <c r="NW169" s="12" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="NX169" s="8"/>
       <c r="NY169" s="8"/>
@@ -14853,7 +14865,7 @@
       <c r="VW169" s="6"/>
       <c r="VX169" s="6"/>
       <c r="VY169" s="12" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="VZ169" s="6"/>
       <c r="WA169" s="6"/>
@@ -14881,19 +14893,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="3:646">
+    <row r="170" spans="3:646" x14ac:dyDescent="0.2">
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
       <c r="I170" s="12" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="Y170" s="8"/>
       <c r="AA170" s="8"/>
       <c r="AB170" s="6"/>
       <c r="AC170" s="6"/>
       <c r="AD170" s="3" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="FB170" s="8"/>
       <c r="NJ170" s="6"/>
@@ -14903,7 +14915,7 @@
       <c r="NN170" s="6"/>
       <c r="NO170" s="6"/>
       <c r="NP170" s="12" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="NQ170" s="6"/>
       <c r="NR170" s="6"/>
@@ -14953,7 +14965,7 @@
       <c r="WL170" s="8"/>
       <c r="WM170" s="7"/>
     </row>
-    <row r="171" spans="3:646">
+    <row r="171" spans="3:646" x14ac:dyDescent="0.2">
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
@@ -15002,7 +15014,7 @@
       <c r="VP171" s="6"/>
       <c r="VQ171" s="6"/>
       <c r="VR171" s="12" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="VS171" s="6"/>
       <c r="VT171" s="6"/>
@@ -15030,19 +15042,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="3:646">
+    <row r="172" spans="3:646" x14ac:dyDescent="0.2">
       <c r="F172" s="8"/>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
       <c r="I172" s="12" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="Q172" s="6"/>
       <c r="R172" s="8"/>
       <c r="Y172" s="8"/>
       <c r="AA172" s="8"/>
       <c r="AD172" s="3" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="FB172" s="8"/>
       <c r="NC172" s="6"/>
@@ -15052,7 +15064,7 @@
       <c r="NG172" s="6"/>
       <c r="NH172" s="6"/>
       <c r="NI172" s="12" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="NJ172" s="6"/>
       <c r="NK172" s="6"/>
@@ -15061,7 +15073,7 @@
       <c r="NN172" s="8"/>
       <c r="NO172" s="6"/>
       <c r="NP172" s="12" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="NQ172" s="6"/>
       <c r="NR172" s="6"/>
@@ -15070,7 +15082,7 @@
       <c r="NU172" s="8"/>
       <c r="NV172" s="6"/>
       <c r="NW172" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="NX172" s="6"/>
       <c r="NY172" s="6"/>
@@ -15104,7 +15116,7 @@
       <c r="WE172" s="8"/>
       <c r="WF172" s="7"/>
     </row>
-    <row r="173" spans="3:646">
+    <row r="173" spans="3:646" x14ac:dyDescent="0.2">
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
@@ -15126,7 +15138,7 @@
       <c r="NG173" s="8"/>
       <c r="NH173" s="8"/>
       <c r="NI173" s="12" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="NJ173" s="8"/>
       <c r="NK173" s="8"/>
@@ -15150,7 +15162,7 @@
       <c r="VI173" s="6"/>
       <c r="VJ173" s="6"/>
       <c r="VK173" s="12" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="VL173" s="6"/>
       <c r="VM173" s="6"/>
@@ -15178,7 +15190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="3:646">
+    <row r="174" spans="3:646" x14ac:dyDescent="0.2">
       <c r="F174" s="8"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
@@ -15187,14 +15199,14 @@
       <c r="R174" s="8"/>
       <c r="V174" s="6"/>
       <c r="W174" s="12" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="Y174" s="8"/>
       <c r="AA174" s="8"/>
       <c r="AB174" s="6"/>
       <c r="AC174" s="6"/>
       <c r="AD174" s="3" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="FB174" s="8"/>
       <c r="MV174" s="6"/>
@@ -15204,7 +15216,7 @@
       <c r="MZ174" s="6"/>
       <c r="NA174" s="6"/>
       <c r="NB174" s="12" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="NC174" s="6"/>
       <c r="ND174" s="6"/>
@@ -15213,7 +15225,7 @@
       <c r="NG174" s="8"/>
       <c r="NH174" s="6"/>
       <c r="NI174" s="12" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="NJ174" s="6"/>
       <c r="NK174" s="6"/>
@@ -15254,7 +15266,7 @@
       <c r="VX174" s="8"/>
       <c r="VY174" s="7"/>
     </row>
-    <row r="175" spans="3:646">
+    <row r="175" spans="3:646" x14ac:dyDescent="0.2">
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
@@ -15300,7 +15312,7 @@
       <c r="VB175" s="6"/>
       <c r="VC175" s="6"/>
       <c r="VD175" s="12" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="VE175" s="6"/>
       <c r="VF175" s="6"/>
@@ -15328,7 +15340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="3:646">
+    <row r="176" spans="3:646" x14ac:dyDescent="0.2">
       <c r="I176" s="7" t="s">
         <v>31</v>
       </c>
@@ -15337,13 +15349,13 @@
       <c r="U176" s="6"/>
       <c r="V176" s="6"/>
       <c r="W176" s="12" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="AA176" s="6"/>
       <c r="AB176" s="6"/>
       <c r="AC176" s="6"/>
       <c r="AD176" s="3" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="FB176" s="8"/>
       <c r="MO176" s="6"/>
@@ -15353,7 +15365,7 @@
       <c r="MS176" s="6"/>
       <c r="MT176" s="6"/>
       <c r="MU176" s="12" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="MV176" s="6"/>
       <c r="MW176" s="6"/>
@@ -15362,7 +15374,7 @@
       <c r="MZ176" s="8"/>
       <c r="NA176" s="6"/>
       <c r="NB176" s="12" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="NC176" s="6"/>
       <c r="ND176" s="6"/>
@@ -15403,7 +15415,7 @@
       <c r="VQ176" s="8"/>
       <c r="VR176" s="7"/>
     </row>
-    <row r="177" spans="3:590">
+    <row r="177" spans="3:590" x14ac:dyDescent="0.2">
       <c r="R177" s="8"/>
       <c r="S177" s="8"/>
       <c r="T177" s="8"/>
@@ -15443,7 +15455,7 @@
       <c r="UU177" s="6"/>
       <c r="UV177" s="6"/>
       <c r="UW177" s="12" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="UX177" s="6"/>
       <c r="UY177" s="6"/>
@@ -15471,14 +15483,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="3:590">
+    <row r="178" spans="3:590" x14ac:dyDescent="0.2">
       <c r="I178" s="12"/>
       <c r="R178" s="8"/>
       <c r="T178" s="8"/>
       <c r="U178" s="6"/>
       <c r="V178" s="6"/>
       <c r="W178" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="FB178" s="8"/>
       <c r="MH178" s="6"/>
@@ -15488,7 +15500,7 @@
       <c r="ML178" s="6"/>
       <c r="MM178" s="6"/>
       <c r="MN178" s="12" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="MO178" s="6"/>
       <c r="MP178" s="6"/>
@@ -15497,7 +15509,7 @@
       <c r="MS178" s="8"/>
       <c r="MT178" s="6"/>
       <c r="MU178" s="12" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="MV178" s="6"/>
       <c r="MW178" s="6"/>
@@ -15538,7 +15550,7 @@
       <c r="VJ178" s="8"/>
       <c r="VK178" s="7"/>
     </row>
-    <row r="179" spans="3:590">
+    <row r="179" spans="3:590" x14ac:dyDescent="0.2">
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
@@ -15578,7 +15590,7 @@
       <c r="UN179" s="6"/>
       <c r="UO179" s="6"/>
       <c r="UP179" s="12" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="UQ179" s="6"/>
       <c r="UR179" s="6"/>
@@ -15606,7 +15618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="3:590">
+    <row r="180" spans="3:590" x14ac:dyDescent="0.2">
       <c r="F180" s="8"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
@@ -15619,7 +15631,7 @@
       <c r="U180" s="6"/>
       <c r="V180" s="6"/>
       <c r="W180" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="FB180" s="8"/>
       <c r="MA180" s="6"/>
@@ -15629,7 +15641,7 @@
       <c r="ME180" s="6"/>
       <c r="MF180" s="6"/>
       <c r="MG180" s="12" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="MH180" s="6"/>
       <c r="MI180" s="6"/>
@@ -15638,7 +15650,7 @@
       <c r="ML180" s="8"/>
       <c r="MM180" s="6"/>
       <c r="MN180" s="12" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="MO180" s="6"/>
       <c r="MP180" s="6"/>
@@ -15647,7 +15659,7 @@
       <c r="MS180" s="8"/>
       <c r="MT180" s="6"/>
       <c r="MU180" s="7" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="MV180" s="6"/>
       <c r="MW180" s="6"/>
@@ -15681,7 +15693,7 @@
       <c r="VC180" s="8"/>
       <c r="VD180" s="7"/>
     </row>
-    <row r="181" spans="3:590">
+    <row r="181" spans="3:590" x14ac:dyDescent="0.2">
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
@@ -15720,7 +15732,7 @@
       <c r="UG181" s="6"/>
       <c r="UH181" s="6"/>
       <c r="UI181" s="12" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="UJ181" s="6"/>
       <c r="UK181" s="6"/>
@@ -15748,12 +15760,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="3:590">
+    <row r="182" spans="3:590" x14ac:dyDescent="0.2">
       <c r="F182" s="8"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
       <c r="I182" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="R182" s="8"/>
       <c r="FB182" s="8"/>
@@ -15764,7 +15776,7 @@
       <c r="LX182" s="6"/>
       <c r="LY182" s="6"/>
       <c r="LZ182" s="12" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="MA182" s="6"/>
       <c r="MB182" s="6"/>
@@ -15814,7 +15826,7 @@
       <c r="UV182" s="8"/>
       <c r="UW182" s="7"/>
     </row>
-    <row r="183" spans="3:590">
+    <row r="183" spans="3:590" x14ac:dyDescent="0.2">
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
@@ -15858,7 +15870,7 @@
       <c r="TZ183" s="6"/>
       <c r="UA183" s="6"/>
       <c r="UB183" s="12" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="UC183" s="6"/>
       <c r="UD183" s="6"/>
@@ -15886,12 +15898,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="3:590">
+    <row r="184" spans="3:590" x14ac:dyDescent="0.2">
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
       <c r="I184" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="FB184" s="8"/>
       <c r="LM184" s="6"/>
@@ -15901,7 +15913,7 @@
       <c r="LQ184" s="6"/>
       <c r="LR184" s="6"/>
       <c r="LS184" s="12" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="LT184" s="6"/>
       <c r="LU184" s="6"/>
@@ -15951,7 +15963,7 @@
       <c r="UO184" s="8"/>
       <c r="UP184" s="7"/>
     </row>
-    <row r="185" spans="3:590">
+    <row r="185" spans="3:590" x14ac:dyDescent="0.2">
       <c r="FB185" s="8"/>
       <c r="LM185" s="6"/>
       <c r="LN185" s="6"/>
@@ -15977,7 +15989,7 @@
       <c r="TS185" s="8"/>
       <c r="TT185" s="6"/>
       <c r="TU185" s="7" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="TV185" s="6"/>
       <c r="TW185" s="6"/>
@@ -16005,7 +16017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="3:590">
+    <row r="186" spans="3:590" x14ac:dyDescent="0.2">
       <c r="FB186" s="8"/>
       <c r="LF186" s="6"/>
       <c r="LG186" s="6"/>
@@ -16014,7 +16026,7 @@
       <c r="LJ186" s="6"/>
       <c r="LK186" s="6"/>
       <c r="LL186" s="12" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="LM186" s="6"/>
       <c r="LN186" s="6"/>
@@ -16059,7 +16071,7 @@
       <c r="UH186" s="8"/>
       <c r="UI186" s="7"/>
     </row>
-    <row r="187" spans="3:590">
+    <row r="187" spans="3:590" x14ac:dyDescent="0.2">
       <c r="CH187" s="6"/>
       <c r="CI187" s="6"/>
       <c r="CO187" s="6"/>
@@ -16108,7 +16120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="3:590">
+    <row r="188" spans="3:590" x14ac:dyDescent="0.2">
       <c r="CO188" s="6"/>
       <c r="CP188" s="6"/>
       <c r="FB188" s="8"/>
@@ -16119,7 +16131,7 @@
       <c r="LC188" s="6"/>
       <c r="LD188" s="6"/>
       <c r="LE188" s="12" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="LF188" s="6"/>
       <c r="LG188" s="6"/>
@@ -16154,7 +16166,7 @@
       <c r="UA188" s="8"/>
       <c r="UB188" s="7"/>
     </row>
-    <row r="189" spans="3:590" ht="15" customHeight="1">
+    <row r="189" spans="3:590" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="FB189" s="8"/>
       <c r="KY189" s="6"/>
       <c r="KZ189" s="6"/>
@@ -16163,7 +16175,7 @@
       <c r="LC189" s="8"/>
       <c r="LD189" s="8"/>
       <c r="LE189" s="12" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="LF189" s="8"/>
       <c r="LG189" s="8"/>
@@ -16189,7 +16201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="3:590">
+    <row r="190" spans="3:590" x14ac:dyDescent="0.2">
       <c r="FB190" s="8"/>
       <c r="KR190" s="6"/>
       <c r="KS190" s="6"/>
@@ -16198,7 +16210,7 @@
       <c r="KV190" s="6"/>
       <c r="KW190" s="6"/>
       <c r="KX190" s="12" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="KY190" s="6"/>
       <c r="KZ190" s="6"/>
@@ -16226,7 +16238,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="3:590">
+    <row r="191" spans="3:590" x14ac:dyDescent="0.2">
       <c r="FB191" s="8"/>
       <c r="KR191" s="6"/>
       <c r="KS191" s="6"/>
@@ -16250,7 +16262,7 @@
       <c r="LK191" s="8"/>
       <c r="LL191" s="7"/>
     </row>
-    <row r="192" spans="3:590">
+    <row r="192" spans="3:590" x14ac:dyDescent="0.2">
       <c r="FB192" s="8"/>
       <c r="KK192" s="6"/>
       <c r="KL192" s="6"/>
@@ -16259,7 +16271,7 @@
       <c r="KO192" s="6"/>
       <c r="KP192" s="6"/>
       <c r="KQ192" s="12" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="KR192" s="6"/>
       <c r="KS192" s="6"/>
@@ -16287,7 +16299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="93:317">
+    <row r="193" spans="93:317" x14ac:dyDescent="0.2">
       <c r="FB193" s="8"/>
       <c r="KK193" s="6"/>
       <c r="KL193" s="6"/>
@@ -16311,7 +16323,7 @@
       <c r="LD193" s="8"/>
       <c r="LE193" s="7"/>
     </row>
-    <row r="194" spans="93:317">
+    <row r="194" spans="93:317" x14ac:dyDescent="0.2">
       <c r="FB194" s="8"/>
       <c r="KD194" s="6"/>
       <c r="KE194" s="6"/>
@@ -16320,7 +16332,7 @@
       <c r="KH194" s="6"/>
       <c r="KI194" s="6"/>
       <c r="KJ194" s="12" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="KK194" s="6"/>
       <c r="KL194" s="6"/>
@@ -16329,7 +16341,7 @@
       <c r="KO194" s="8"/>
       <c r="KP194" s="6"/>
       <c r="KQ194" s="12" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="KR194" s="6"/>
       <c r="KS194" s="6"/>
@@ -16348,7 +16360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="93:317">
+    <row r="195" spans="93:317" x14ac:dyDescent="0.2">
       <c r="FB195" s="8"/>
       <c r="KD195" s="6"/>
       <c r="KE195" s="6"/>
@@ -16372,7 +16384,7 @@
       <c r="KW195" s="8"/>
       <c r="KX195" s="7"/>
     </row>
-    <row r="196" spans="93:317">
+    <row r="196" spans="93:317" x14ac:dyDescent="0.2">
       <c r="FB196" s="8"/>
       <c r="JW196" s="6"/>
       <c r="JX196" s="6"/>
@@ -16381,7 +16393,7 @@
       <c r="KA196" s="6"/>
       <c r="KB196" s="6"/>
       <c r="KC196" s="12" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="KD196" s="6"/>
       <c r="KE196" s="6"/>
@@ -16390,7 +16402,7 @@
       <c r="KH196" s="8"/>
       <c r="KI196" s="6"/>
       <c r="KJ196" s="12" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="KK196" s="6"/>
       <c r="KL196" s="6"/>
@@ -16399,7 +16411,7 @@
       <c r="KO196" s="8"/>
       <c r="KP196" s="6"/>
       <c r="KQ196" s="7" t="s">
-        <v>430</v>
+        <v>568</v>
       </c>
       <c r="KR196" s="6"/>
       <c r="KS196" s="6"/>
@@ -16411,7 +16423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="93:317">
+    <row r="197" spans="93:317" x14ac:dyDescent="0.2">
       <c r="FB197" s="8"/>
       <c r="JW197" s="6"/>
       <c r="JX197" s="6"/>
@@ -16434,10 +16446,10 @@
       <c r="KO197" s="8"/>
       <c r="KP197" s="8"/>
       <c r="KQ197" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="198" spans="93:317">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="198" spans="93:317" x14ac:dyDescent="0.2">
       <c r="FB198" s="8"/>
       <c r="JP198" s="6"/>
       <c r="JQ198" s="6"/>
@@ -16446,7 +16458,7 @@
       <c r="JT198" s="6"/>
       <c r="JU198" s="6"/>
       <c r="JV198" s="12" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="JW198" s="6"/>
       <c r="JX198" s="6"/>
@@ -16455,7 +16467,7 @@
       <c r="KA198" s="8"/>
       <c r="KB198" s="6"/>
       <c r="KC198" s="12" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="KD198" s="6"/>
       <c r="KE198" s="6"/>
@@ -16474,7 +16486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="93:317">
+    <row r="199" spans="93:317" x14ac:dyDescent="0.2">
       <c r="FB199" s="8"/>
       <c r="JP199" s="6"/>
       <c r="JQ199" s="6"/>
@@ -16498,7 +16510,7 @@
       <c r="KI199" s="8"/>
       <c r="KJ199" s="7"/>
     </row>
-    <row r="200" spans="93:317">
+    <row r="200" spans="93:317" x14ac:dyDescent="0.2">
       <c r="FB200" s="8"/>
       <c r="JI200" s="6"/>
       <c r="JJ200" s="6"/>
@@ -16507,7 +16519,7 @@
       <c r="JM200" s="6"/>
       <c r="JN200" s="6"/>
       <c r="JO200" s="12" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="JP200" s="6"/>
       <c r="JQ200" s="6"/>
@@ -16516,7 +16528,7 @@
       <c r="JT200" s="8"/>
       <c r="JU200" s="6"/>
       <c r="JV200" s="12" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="JW200" s="6"/>
       <c r="JX200" s="6"/>
@@ -16535,7 +16547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="93:317">
+    <row r="201" spans="93:317" x14ac:dyDescent="0.2">
       <c r="FB201" s="8"/>
       <c r="JI201" s="6"/>
       <c r="JJ201" s="6"/>
@@ -16559,7 +16571,7 @@
       <c r="KB201" s="8"/>
       <c r="KC201" s="7"/>
     </row>
-    <row r="202" spans="93:317">
+    <row r="202" spans="93:317" x14ac:dyDescent="0.2">
       <c r="FB202" s="8"/>
       <c r="JB202" s="6"/>
       <c r="JC202" s="6"/>
@@ -16568,7 +16580,7 @@
       <c r="JF202" s="6"/>
       <c r="JG202" s="6"/>
       <c r="JH202" s="12" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="JI202" s="6"/>
       <c r="JJ202" s="6"/>
@@ -16577,7 +16589,7 @@
       <c r="JM202" s="8"/>
       <c r="JN202" s="6"/>
       <c r="JO202" s="12" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="JP202" s="6"/>
       <c r="JQ202" s="6"/>
@@ -16596,7 +16608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="93:317">
+    <row r="203" spans="93:317" x14ac:dyDescent="0.2">
       <c r="FB203" s="8"/>
       <c r="JB203" s="6"/>
       <c r="JC203" s="6"/>
@@ -16620,7 +16632,7 @@
       <c r="JU203" s="8"/>
       <c r="JV203" s="7"/>
     </row>
-    <row r="204" spans="93:317">
+    <row r="204" spans="93:317" x14ac:dyDescent="0.2">
       <c r="CO204" s="6"/>
       <c r="CP204" s="6"/>
       <c r="FB204" s="8"/>
@@ -16631,7 +16643,7 @@
       <c r="IY204" s="6"/>
       <c r="IZ204" s="6"/>
       <c r="JA204" s="12" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="JB204" s="6"/>
       <c r="JC204" s="6"/>
@@ -16640,7 +16652,7 @@
       <c r="JF204" s="8"/>
       <c r="JG204" s="6"/>
       <c r="JH204" s="12" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="JI204" s="6"/>
       <c r="JJ204" s="6"/>
@@ -16659,7 +16671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="93:317">
+    <row r="205" spans="93:317" x14ac:dyDescent="0.2">
       <c r="CO205" s="6"/>
       <c r="CP205" s="6"/>
       <c r="FB205" s="8"/>
@@ -16685,7 +16697,7 @@
       <c r="JN205" s="8"/>
       <c r="JO205" s="7"/>
     </row>
-    <row r="206" spans="93:317">
+    <row r="206" spans="93:317" x14ac:dyDescent="0.2">
       <c r="CO206" s="6"/>
       <c r="CP206" s="6"/>
       <c r="FB206" s="8"/>
@@ -16696,7 +16708,7 @@
       <c r="IR206" s="6"/>
       <c r="IS206" s="6"/>
       <c r="IT206" s="12" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="IU206" s="6"/>
       <c r="IV206" s="6"/>
@@ -16705,7 +16717,7 @@
       <c r="IY206" s="8"/>
       <c r="IZ206" s="6"/>
       <c r="JA206" s="12" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="JB206" s="6"/>
       <c r="JC206" s="6"/>
@@ -16724,7 +16736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="93:317">
+    <row r="207" spans="93:317" x14ac:dyDescent="0.2">
       <c r="FB207" s="8"/>
       <c r="IN207" s="6"/>
       <c r="IO207" s="6"/>
@@ -16748,7 +16760,7 @@
       <c r="JG207" s="8"/>
       <c r="JH207" s="7"/>
     </row>
-    <row r="208" spans="93:317">
+    <row r="208" spans="93:317" x14ac:dyDescent="0.2">
       <c r="FB208" s="8"/>
       <c r="IG208" s="6"/>
       <c r="IH208" s="6"/>
@@ -16757,7 +16769,7 @@
       <c r="IK208" s="6"/>
       <c r="IL208" s="6"/>
       <c r="IM208" s="12" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="IN208" s="6"/>
       <c r="IO208" s="6"/>
@@ -16785,7 +16797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="93:261">
+    <row r="209" spans="93:261" x14ac:dyDescent="0.2">
       <c r="FB209" s="8"/>
       <c r="IG209" s="6"/>
       <c r="IH209" s="6"/>
@@ -16809,7 +16821,7 @@
       <c r="IZ209" s="8"/>
       <c r="JA209" s="7"/>
     </row>
-    <row r="210" spans="93:261">
+    <row r="210" spans="93:261" x14ac:dyDescent="0.2">
       <c r="CO210" s="6"/>
       <c r="CP210" s="6"/>
       <c r="FB210" s="8"/>
@@ -16820,7 +16832,7 @@
       <c r="ID210" s="6"/>
       <c r="IE210" s="6"/>
       <c r="IF210" s="12" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="IG210" s="6"/>
       <c r="IH210" s="6"/>
@@ -16829,7 +16841,7 @@
       <c r="IK210" s="8"/>
       <c r="IL210" s="6"/>
       <c r="IM210" s="12" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="IN210" s="6"/>
       <c r="IO210" s="6"/>
@@ -16838,7 +16850,7 @@
       <c r="IR210" s="8"/>
       <c r="IS210" s="6"/>
       <c r="IT210" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="IU210" s="6"/>
       <c r="IV210" s="6"/>
@@ -16850,7 +16862,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="93:261">
+    <row r="211" spans="93:261" x14ac:dyDescent="0.2">
       <c r="CO211" s="6"/>
       <c r="CP211" s="6"/>
       <c r="FB211" s="8"/>
@@ -16876,7 +16888,7 @@
       <c r="IS211" s="8"/>
       <c r="IT211" s="7"/>
     </row>
-    <row r="212" spans="93:261">
+    <row r="212" spans="93:261" x14ac:dyDescent="0.2">
       <c r="CO212" s="6"/>
       <c r="CP212" s="6"/>
       <c r="FB212" s="8"/>
@@ -16887,7 +16899,7 @@
       <c r="HW212" s="6"/>
       <c r="HX212" s="6"/>
       <c r="HY212" s="12" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="HZ212" s="6"/>
       <c r="IA212" s="6"/>
@@ -16896,7 +16908,7 @@
       <c r="ID212" s="8"/>
       <c r="IE212" s="6"/>
       <c r="IF212" s="12" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="IG212" s="6"/>
       <c r="IH212" s="6"/>
@@ -16905,7 +16917,7 @@
       <c r="IK212" s="8"/>
       <c r="IL212" s="6"/>
       <c r="IM212" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="IN212" s="6"/>
       <c r="IO212" s="6"/>
@@ -16917,7 +16929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="93:261">
+    <row r="213" spans="93:261" x14ac:dyDescent="0.2">
       <c r="FB213" s="8"/>
       <c r="HS213" s="6"/>
       <c r="HT213" s="6"/>
@@ -16941,7 +16953,7 @@
       <c r="IL213" s="8"/>
       <c r="IM213" s="7"/>
     </row>
-    <row r="214" spans="93:261">
+    <row r="214" spans="93:261" x14ac:dyDescent="0.2">
       <c r="FB214" s="8"/>
       <c r="GX214" s="6"/>
       <c r="GY214" s="6"/>
@@ -16950,7 +16962,7 @@
       <c r="HB214" s="6"/>
       <c r="HC214" s="6"/>
       <c r="HD214" s="12" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="HL214" s="6"/>
       <c r="HM214" s="6"/>
@@ -16959,7 +16971,7 @@
       <c r="HP214" s="6"/>
       <c r="HQ214" s="6"/>
       <c r="HR214" s="12" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="HS214" s="6"/>
       <c r="HT214" s="6"/>
@@ -16968,7 +16980,7 @@
       <c r="HW214" s="8"/>
       <c r="HX214" s="6"/>
       <c r="HY214" s="12" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="HZ214" s="6"/>
       <c r="IA214" s="6"/>
@@ -16977,7 +16989,7 @@
       <c r="ID214" s="8"/>
       <c r="IE214" s="6"/>
       <c r="IF214" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="IG214" s="6"/>
       <c r="IH214" s="6"/>
@@ -16989,7 +17001,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="93:261">
+    <row r="215" spans="93:261" x14ac:dyDescent="0.2">
       <c r="FB215" s="8"/>
       <c r="GX215" s="6"/>
       <c r="GY215" s="6"/>
@@ -16998,7 +17010,7 @@
       <c r="HB215" s="8"/>
       <c r="HC215" s="8"/>
       <c r="HD215" s="12" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="HL215" s="6"/>
       <c r="HM215" s="6"/>
@@ -17021,13 +17033,13 @@
       <c r="ID215" s="8"/>
       <c r="IE215" s="8"/>
       <c r="IF215" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="216" spans="93:261">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="216" spans="93:261" x14ac:dyDescent="0.2">
       <c r="FB216" s="8"/>
       <c r="GW216" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="GX216" s="6"/>
       <c r="GY216" s="6"/>
@@ -17036,7 +17048,7 @@
       <c r="HB216" s="8"/>
       <c r="HC216" s="6"/>
       <c r="HD216" s="12" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="HE216" s="6"/>
       <c r="HF216" s="6"/>
@@ -17045,7 +17057,7 @@
       <c r="HI216" s="6"/>
       <c r="HJ216" s="6"/>
       <c r="HK216" s="12" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="HL216" s="6"/>
       <c r="HM216" s="6"/>
@@ -17063,7 +17075,7 @@
       <c r="HW216" s="8"/>
       <c r="HX216" s="6"/>
       <c r="HY216" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="HZ216" s="6"/>
       <c r="IA216" s="6"/>
@@ -17072,10 +17084,10 @@
       <c r="ID216" s="6"/>
       <c r="IE216" s="6"/>
       <c r="IF216" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="217" spans="93:261">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="217" spans="93:261" x14ac:dyDescent="0.2">
       <c r="FB217" s="8"/>
       <c r="GU217" s="8"/>
       <c r="GV217" s="8"/>
@@ -17109,18 +17121,18 @@
       <c r="HX217" s="8"/>
       <c r="HY217" s="7"/>
     </row>
-    <row r="218" spans="93:261">
+    <row r="218" spans="93:261" x14ac:dyDescent="0.2">
       <c r="FB218" s="8"/>
       <c r="GB218" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="GP218" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="GU218" s="8"/>
       <c r="GV218" s="6"/>
       <c r="GW218" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="GX218" s="6"/>
       <c r="GY218" s="6"/>
@@ -17129,7 +17141,7 @@
       <c r="HB218" s="8"/>
       <c r="HC218" s="6"/>
       <c r="HD218" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="HE218" s="6"/>
       <c r="HF218" s="6"/>
@@ -17138,7 +17150,7 @@
       <c r="HI218" s="8"/>
       <c r="HJ218" s="6"/>
       <c r="HK218" s="12" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="HL218" s="6"/>
       <c r="HM218" s="6"/>
@@ -17147,7 +17159,7 @@
       <c r="HP218" s="8"/>
       <c r="HQ218" s="6"/>
       <c r="HR218" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="HS218" s="6"/>
       <c r="HT218" s="6"/>
@@ -17156,10 +17168,10 @@
       <c r="HW218" s="6"/>
       <c r="HX218" s="6"/>
       <c r="HY218" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="219" spans="93:261">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="219" spans="93:261" x14ac:dyDescent="0.2">
       <c r="FB219" s="8"/>
       <c r="FZ219" s="8"/>
       <c r="GA219" s="8"/>
@@ -17196,28 +17208,28 @@
       <c r="HQ219" s="8"/>
       <c r="HR219" s="7"/>
     </row>
-    <row r="220" spans="93:261">
+    <row r="220" spans="93:261" x14ac:dyDescent="0.2">
       <c r="FB220" s="8"/>
       <c r="FU220" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="FZ220" s="8"/>
       <c r="GA220" s="6"/>
       <c r="GB220" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="GI220" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="GN220" s="8"/>
       <c r="GO220" s="6"/>
       <c r="GP220" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="GU220" s="8"/>
       <c r="GV220" s="6"/>
       <c r="GW220" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="GX220" s="6"/>
       <c r="GY220" s="6"/>
@@ -17226,7 +17238,7 @@
       <c r="HB220" s="6"/>
       <c r="HC220" s="6"/>
       <c r="HD220" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="HE220" s="6"/>
       <c r="HF220" s="6"/>
@@ -17235,7 +17247,7 @@
       <c r="HI220" s="8"/>
       <c r="HJ220" s="6"/>
       <c r="HK220" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="HL220" s="6"/>
       <c r="HM220" s="6"/>
@@ -17244,10 +17256,10 @@
       <c r="HP220" s="6"/>
       <c r="HQ220" s="6"/>
       <c r="HR220" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="221" spans="93:261">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="221" spans="93:261" x14ac:dyDescent="0.2">
       <c r="FB221" s="8"/>
       <c r="FS221" s="8"/>
       <c r="FT221" s="8"/>
@@ -17280,33 +17292,33 @@
       <c r="HJ221" s="8"/>
       <c r="HK221" s="7"/>
     </row>
-    <row r="222" spans="93:261">
+    <row r="222" spans="93:261" x14ac:dyDescent="0.2">
       <c r="FB222" s="8"/>
       <c r="FN222" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="FS222" s="8"/>
       <c r="FT222" s="6"/>
       <c r="FU222" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="FZ222" s="8"/>
       <c r="GA222" s="6"/>
       <c r="GB222" s="3" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="GG222" s="8"/>
       <c r="GH222" s="6"/>
       <c r="GI222" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="GN222" s="8"/>
       <c r="GO222" s="6"/>
       <c r="GP222" s="3" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="GW222" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="HE222" s="6"/>
       <c r="HF222" s="6"/>
@@ -17315,10 +17327,10 @@
       <c r="HI222" s="6"/>
       <c r="HJ222" s="6"/>
       <c r="HK222" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="223" spans="93:261">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="223" spans="93:261" x14ac:dyDescent="0.2">
       <c r="FB223" s="8"/>
       <c r="FL223" s="8"/>
       <c r="FM223" s="8"/>
@@ -17344,31 +17356,31 @@
       <c r="GO223" s="8"/>
       <c r="GP223" s="3"/>
     </row>
-    <row r="224" spans="93:261">
+    <row r="224" spans="93:261" x14ac:dyDescent="0.2">
       <c r="FB224" s="8"/>
       <c r="FL224" s="8"/>
       <c r="FM224" s="6"/>
       <c r="FN224" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="FS224" s="8"/>
       <c r="FT224" s="6"/>
       <c r="FU224" s="3" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="GB224" s="3" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="GG224" s="8"/>
       <c r="GH224" s="6"/>
       <c r="GI224" s="3" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="GP224" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="225" spans="158:191">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="225" spans="158:191" x14ac:dyDescent="0.2">
       <c r="FB225" s="8"/>
       <c r="FC225" s="8"/>
       <c r="FD225" s="8"/>
@@ -17389,27 +17401,27 @@
       <c r="GH225" s="8"/>
       <c r="GI225" s="3"/>
     </row>
-    <row r="226" spans="158:191">
+    <row r="226" spans="158:191" x14ac:dyDescent="0.2">
       <c r="FL226" s="8"/>
       <c r="FM226" s="6"/>
       <c r="FN226" s="3" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="FU226" s="3" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="GI226" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="227" spans="158:191">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="227" spans="158:191" x14ac:dyDescent="0.2">
       <c r="FL227" s="8"/>
       <c r="FM227" s="8"/>
       <c r="FN227" s="3"/>
     </row>
-    <row r="228" spans="158:191">
+    <row r="228" spans="158:191" x14ac:dyDescent="0.2">
       <c r="FN228" s="3" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -17419,10 +17431,5 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="10" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="10"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>